--- a/The Comprehensive Nutritional Food Database - WBS.xlsx
+++ b/The Comprehensive Nutritional Food Database - WBS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca83726e5865c2a/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca83726e5865c2a/Desktop/2810ICT - Group Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{43F05CC6-72C9-411F-A5D8-E33B69F300DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13B0CB4F-E4C8-47D7-B712-12CA2AB51B95}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{43F05CC6-72C9-411F-A5D8-E33B69F300DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11688E04-CA32-4A19-8571-D34983C10D25}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FFDBB-4C15-4C6E-ACF4-E4C3DCAD5D88}"/>
   </bookViews>
@@ -1288,7 +1288,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>1.1 Problem Background</a:t>
+            <a:t>3.1 Problem Background</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1325,7 +1325,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>1.2 System capabilities/overview</a:t>
+            <a:t>3.1.1 System capabilities/overview</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1362,7 +1362,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>1.3 Benefit Analysis</a:t>
+            <a:t>3.1.2 Benefit Analysis</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1543,7 +1543,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>2.1 User Requirements</a:t>
+            <a:t>3.2 User Requirements</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1580,7 +1580,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>2.2 Software Requirements</a:t>
+            <a:t>3.2.1 Software Requirements</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1617,7 +1617,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>2.3 Use Case Diagram</a:t>
+            <a:t>3.2.2 Use Case Diagram</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1654,7 +1654,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>2.4 Use Cases</a:t>
+            <a:t>3.2.3 Use Cases</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1691,7 +1691,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>3.1 Software Design</a:t>
+            <a:t>3.3 Structural Design</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1728,7 +1728,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>3.2.1 Functions</a:t>
+            <a:t>3.3.2 Frontend Development</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU"/>
         </a:p>
@@ -1764,10 +1764,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>3.2.2 Data Structures / Data Sources</a:t>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.3.3 Backend Development </a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1801,10 +1800,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>3.2.3 Detailed Design</a:t>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.3.4 Data Managment</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1830,7 +1828,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{0704A606-725D-4DEB-AADB-A526C4C901B2}">
+    <dgm:pt modelId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -1838,14 +1836,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>4.1 Structural Design</a:t>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.4 Documentation</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{B34E23CE-F197-4163-8DBB-4B168725AE78}" type="parTrans" cxnId="{4C9BA5A2-F217-4098-9D27-73E7FDA83443}">
+    <dgm:pt modelId="{68F1300A-E4F6-4923-BE32-597481D1B931}" type="parTrans" cxnId="{435DECC6-93BE-47DD-BAB4-296798F71A6D}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1856,7 +1853,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{FAE004F7-F5C7-4CFB-92FB-EE5410A9477A}" type="sibTrans" cxnId="{4C9BA5A2-F217-4098-9D27-73E7FDA83443}">
+    <dgm:pt modelId="{1748B84E-7625-417B-848B-78BF21BD2D9B}" type="sibTrans" cxnId="{435DECC6-93BE-47DD-BAB4-296798F71A6D}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1867,7 +1864,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{0DB7CE20-685C-475E-A815-6019A7BC2058}">
+    <dgm:pt modelId="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -1875,14 +1872,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>4.2 Visual Design</a:t>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.5 Deployment</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{71BEA269-0EA5-4859-894F-720DF6295D15}" type="parTrans" cxnId="{0C0252E4-EDE7-4EB6-BB40-5EFE516DC045}">
+    <dgm:pt modelId="{7991ACE2-9D56-4A31-AFC8-D6D1F6A1753F}" type="parTrans" cxnId="{7075DDEB-A5BE-4BC9-9648-AA5484C593F2}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1893,7 +1889,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{F020DA34-F683-4469-BE24-C5327EAB03FD}" type="sibTrans" cxnId="{0C0252E4-EDE7-4EB6-BB40-5EFE516DC045}">
+    <dgm:pt modelId="{67E4DAE2-5C4F-456B-BC71-5E515BBDDE42}" type="sibTrans" cxnId="{7075DDEB-A5BE-4BC9-9648-AA5484C593F2}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1904,7 +1900,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{DB071562-A344-416B-A075-15565B399A4C}">
+    <dgm:pt modelId="{B3F60AA0-458A-4695-AD71-B16130B28114}">
       <dgm:prSet phldrT="[Text]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -1912,14 +1908,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-AU" b="0" i="0"/>
-            <a:t>Git_log.txt</a:t>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.3.1 Software Development</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{22A28B6F-9155-4873-9FBD-E8723694A633}" type="parTrans" cxnId="{53801D1D-930F-42BC-904E-7642C79D4083}">
+    <dgm:pt modelId="{36C28FB6-104D-4F58-A0D4-3082DF1BD7C1}" type="parTrans" cxnId="{F95872C0-44CB-473A-A5CE-AEFAD95C3A9E}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1930,7 +1925,187 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{85236DF4-72AF-4AEB-8F93-9028B2B4CC3A}" type="sibTrans" cxnId="{53801D1D-930F-42BC-904E-7642C79D4083}">
+    <dgm:pt modelId="{D0112950-8F59-4E63-B080-357101651AB3}" type="sibTrans" cxnId="{F95872C0-44CB-473A-A5CE-AEFAD95C3A9E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{506BC4C0-768C-43A4-9783-3B89A2F25F26}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.4.1 API Documentation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{58762816-7F72-45B2-8049-D642B5F2BBE0}" type="parTrans" cxnId="{777192E5-3E75-48F4-9DE5-73097D78B1F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C9CA14F-01BB-411D-9F38-1A807AAE63A7}" type="sibTrans" cxnId="{777192E5-3E75-48F4-9DE5-73097D78B1F6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A09FB98C-605B-4433-9358-BF4E6DA5740F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.4.2 User Manual Creation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F5B769D4-0BD4-4420-9ECA-453D52A5534D}" type="parTrans" cxnId="{31376F17-56CC-4FC3-9D7A-38142693EA5B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{08C494F2-7A87-4907-846E-BBF8D34E198C}" type="sibTrans" cxnId="{31376F17-56CC-4FC3-9D7A-38142693EA5B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6114837B-A69F-4558-BA58-7EA1939E4924}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.4.3 System Documentation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1AF0883B-0D27-4742-AD75-084E3CF64A31}" type="parTrans" cxnId="{BADDB4F3-6989-4448-8125-17BA9ECB01BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{58620A1F-17B9-4E91-84F3-F896B90046ED}" type="sibTrans" cxnId="{BADDB4F3-6989-4448-8125-17BA9ECB01BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9A5FA836-256E-40AD-9535-0788B97D51DA}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.5.1 Integration and Testing</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{342DDF2E-3BB5-4452-A11E-A094FD54183B}" type="parTrans" cxnId="{7101D829-7EF3-456C-B570-386E488A4FCD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{76DAECD5-6F6B-4820-A027-93BB677F1AC7}" type="sibTrans" cxnId="{7101D829-7EF3-456C-B570-386E488A4FCD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{158EFD68-8240-439F-B12A-3187DE9AF2D6}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU"/>
+            <a:t>3.5.2 Security Implementation</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C39F7D3A-B3F6-4DE7-9D3B-A29FA2CF603D}" type="parTrans" cxnId="{6AD4106C-7926-4085-8224-5F6317DDE8D2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-AU"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{35C99F39-3389-4F3C-A35B-71E911AC24CF}" type="sibTrans" cxnId="{6AD4106C-7926-4085-8224-5F6317DDE8D2}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -2015,7 +2190,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{29784CA0-B3C2-41E3-8E62-DB6124F688A5}" type="pres">
-      <dgm:prSet presAssocID="{27093E14-D501-468A-9F51-5304F86607C3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{27093E14-D501-468A-9F51-5304F86607C3}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CD206635-FA46-4168-BA47-65F0FECE4D5A}" type="pres">
@@ -2031,7 +2206,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{000B74B3-10BE-4E03-8A63-DD3088511EC3}" type="pres">
-      <dgm:prSet presAssocID="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="14">
+      <dgm:prSet presAssocID="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2039,7 +2214,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{122A6402-9F8E-4910-8B26-6644CB4BABB6}" type="pres">
-      <dgm:prSet presAssocID="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CB6B21CC-A2AB-4172-89EA-EEABC4A53222}" type="pres">
@@ -2051,7 +2226,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D596D8B9-FE68-46DC-9E63-356C36294D86}" type="pres">
-      <dgm:prSet presAssocID="{15270B7C-1EF3-4645-9BB8-FFB240291D2C}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{15270B7C-1EF3-4645-9BB8-FFB240291D2C}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F5044721-CD6D-46D4-936C-1B7A36CEA350}" type="pres">
@@ -2067,7 +2242,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D02BF1AA-2210-428F-A250-CF9530125968}" type="pres">
-      <dgm:prSet presAssocID="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="14">
+      <dgm:prSet presAssocID="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2075,7 +2250,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2D8576CB-CAFA-4D75-932A-2E9AC06EA48E}" type="pres">
-      <dgm:prSet presAssocID="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DD69C8B9-90AD-4605-8D0B-F23F12D21FA8}" type="pres">
@@ -2087,7 +2262,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{031E4E57-97B9-4CEB-A94B-3E09959EA92D}" type="pres">
-      <dgm:prSet presAssocID="{AD8412D1-279E-4A84-BC2B-90695530C790}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{AD8412D1-279E-4A84-BC2B-90695530C790}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3B7BEE0D-BDB9-420F-8F0F-EF1DAE37CA30}" type="pres">
@@ -2103,7 +2278,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4FDF516B-1C64-42C4-B5F5-5EF00410C9A5}" type="pres">
-      <dgm:prSet presAssocID="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="14">
+      <dgm:prSet presAssocID="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2111,7 +2286,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B203DC29-7D23-4970-985F-CC805B991DC5}" type="pres">
-      <dgm:prSet presAssocID="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B7388A4B-D089-4AE0-8780-0E7A5EC31038}" type="pres">
@@ -2159,7 +2334,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5437D56A-7E25-43EC-9ACE-45DB0C99150C}" type="pres">
-      <dgm:prSet presAssocID="{3381AFF7-31DF-48CF-B620-33AA7D9EDA0A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{3381AFF7-31DF-48CF-B620-33AA7D9EDA0A}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1230A259-9F9F-4320-9B17-0438C2AD04FF}" type="pres">
@@ -2175,7 +2350,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{913FA38D-796D-417E-B31D-C4277E3EB522}" type="pres">
-      <dgm:prSet presAssocID="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="14">
+      <dgm:prSet presAssocID="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2183,7 +2358,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BFF237AF-4CFE-4407-AF96-B11BDA8B2897}" type="pres">
-      <dgm:prSet presAssocID="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F9F575C7-214D-4B57-BBCA-5F02C2BE8291}" type="pres">
@@ -2195,7 +2370,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E0CB4DC8-AD93-48FB-AD5B-D5B0BFD9706C}" type="pres">
-      <dgm:prSet presAssocID="{3D106DD2-7161-408C-8CE5-774BADF391DA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{3D106DD2-7161-408C-8CE5-774BADF391DA}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4A95A9D6-E15B-445A-96EE-3683E1B3F0AB}" type="pres">
@@ -2211,7 +2386,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{066DD9E2-F666-45F4-B0BA-96FCEDD23686}" type="pres">
-      <dgm:prSet presAssocID="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="14">
+      <dgm:prSet presAssocID="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" presName="rootText" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2219,7 +2394,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5AD424F4-9F57-49FA-BF5C-7BDDC7133660}" type="pres">
-      <dgm:prSet presAssocID="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B2B97776-57A3-4656-A8F6-EB6B587DB942}" type="pres">
@@ -2231,7 +2406,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{50088AB4-A2F1-4D0B-8E7D-924439F69998}" type="pres">
-      <dgm:prSet presAssocID="{A4AF3D91-1A39-47E2-83AB-01DC35404D80}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{A4AF3D91-1A39-47E2-83AB-01DC35404D80}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="5" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F04EA75C-0D3C-48B5-BFA4-900CC8B25DD9}" type="pres">
@@ -2247,7 +2422,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F25FD3B0-2895-4D9C-AD08-17FC868DFF75}" type="pres">
-      <dgm:prSet presAssocID="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="14">
+      <dgm:prSet presAssocID="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" presName="rootText" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2255,7 +2430,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E6C985B5-0D5E-4AF4-8098-1DBEE5E52420}" type="pres">
-      <dgm:prSet presAssocID="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="5" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B28C2E32-0C53-4819-BB58-2B16217E5803}" type="pres">
@@ -2303,7 +2478,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2B1BA499-4738-4F7D-9D9E-3476D4DB46A8}" type="pres">
-      <dgm:prSet presAssocID="{4531B5E0-99E0-4A0F-934E-4DAAB778FAF4}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{4531B5E0-99E0-4A0F-934E-4DAAB778FAF4}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="6" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8A57F431-3B7B-41CA-B7CF-335B37A4D55A}" type="pres">
@@ -2319,7 +2494,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{52DF689B-3B56-4889-B402-CA63414DAE49}" type="pres">
-      <dgm:prSet presAssocID="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="14">
+      <dgm:prSet presAssocID="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" presName="rootText" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2327,7 +2502,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8580DD08-3861-492A-8558-60F100657A41}" type="pres">
-      <dgm:prSet presAssocID="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="6" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9F550472-BF94-4AF2-969B-7AD124838DCC}" type="pres">
@@ -2335,7 +2510,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8BDD2352-009F-4F3B-B6FB-371F8CB8D066}" type="pres">
-      <dgm:prSet presAssocID="{6E2999F4-5C4D-4AFE-ABC2-1AEC224496A9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{6E2999F4-5C4D-4AFE-ABC2-1AEC224496A9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{070B36C9-5A44-4413-BF21-95DD61C4FCB4}" type="pres">
@@ -2351,7 +2526,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5B5AEF24-6FB9-4B19-8DDC-0207E14A0963}" type="pres">
-      <dgm:prSet presAssocID="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="10">
+      <dgm:prSet presAssocID="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2359,7 +2534,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CD6497D3-ECDA-44A1-B852-B51EFC12A20C}" type="pres">
-      <dgm:prSet presAssocID="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B1E6AD7F-5B25-45F2-8323-DBA75B7CFBAA}" type="pres">
@@ -2371,7 +2546,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{60197C03-CCB1-462D-9D65-0EA45CDB37EC}" type="pres">
-      <dgm:prSet presAssocID="{92742C87-9714-41A4-9166-09A9B878C25A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{92742C87-9714-41A4-9166-09A9B878C25A}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4764B3C7-641C-4EA0-AA9D-05E95B0DD55C}" type="pres">
@@ -2387,7 +2562,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C1D64DAF-F350-42E5-9870-63D105F0512F}" type="pres">
-      <dgm:prSet presAssocID="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="10">
+      <dgm:prSet presAssocID="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2395,7 +2570,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0A8DE988-D005-42A0-BE00-74EB229EA639}" type="pres">
-      <dgm:prSet presAssocID="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D97DDA39-5F96-4A53-BF9C-D56C38F4B4E8}" type="pres">
@@ -2411,7 +2586,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{895954F6-2A42-4319-8C8D-C75F5562EE3B}" type="pres">
-      <dgm:prSet presAssocID="{04FF8E3F-2021-41A0-BD4B-C614417A660D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{04FF8E3F-2021-41A0-BD4B-C614417A660D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="7" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{57900BB7-37AC-495B-A6C7-5407776096DD}" type="pres">
@@ -2427,7 +2602,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6EB9C823-42F2-4D35-B886-266539ACBF07}" type="pres">
-      <dgm:prSet presAssocID="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="14">
+      <dgm:prSet presAssocID="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" presName="rootText" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2435,7 +2610,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2B1DAA27-9AC5-43B3-A7A7-E65F3D2A91FE}" type="pres">
-      <dgm:prSet presAssocID="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="7" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{74075AF6-138D-4C5F-B9F9-33420281F90E}" type="pres">
@@ -2443,7 +2618,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{64CC8A95-DEC1-48BF-8D92-E760D6A506FB}" type="pres">
-      <dgm:prSet presAssocID="{E008DEAC-C1F8-4FB3-90EF-431A01FBA815}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{E008DEAC-C1F8-4FB3-90EF-431A01FBA815}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7E3A86AE-F86E-46F9-9D86-CD8ABB68D65F}" type="pres">
@@ -2459,7 +2634,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CA345907-1E19-4DA2-A445-A33FDE4394B0}" type="pres">
-      <dgm:prSet presAssocID="{E98759FD-393F-4768-990F-9F1C7F9DE503}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="10">
+      <dgm:prSet presAssocID="{E98759FD-393F-4768-990F-9F1C7F9DE503}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2467,7 +2642,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D4F2F923-2EBA-45BF-BB46-329B7DB250D4}" type="pres">
-      <dgm:prSet presAssocID="{E98759FD-393F-4768-990F-9F1C7F9DE503}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{E98759FD-393F-4768-990F-9F1C7F9DE503}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4473F1DB-2713-4E59-BFCA-F37983BE1F8B}" type="pres">
@@ -2479,7 +2654,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DCD7312B-2312-4AAE-A452-C72076DB08CE}" type="pres">
-      <dgm:prSet presAssocID="{779F565D-18CC-4DB4-8588-D1C1C425D38D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{779F565D-18CC-4DB4-8588-D1C1C425D38D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DE43E9CC-6C9F-41B5-8ECC-C408DED70A05}" type="pres">
@@ -2495,7 +2670,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C35FFB2F-083B-4C9F-B1F5-8C1DD4EBBA89}" type="pres">
-      <dgm:prSet presAssocID="{EB376DC6-5BFF-467B-8693-87FA67955008}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="10">
+      <dgm:prSet presAssocID="{EB376DC6-5BFF-467B-8693-87FA67955008}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2503,7 +2678,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4E700E82-17A6-4514-B183-5A77AE098D2D}" type="pres">
-      <dgm:prSet presAssocID="{EB376DC6-5BFF-467B-8693-87FA67955008}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{EB376DC6-5BFF-467B-8693-87FA67955008}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2EEA103F-398F-43D4-92D5-142E52B5D45F}" type="pres">
@@ -2515,7 +2690,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D7AD3CD4-FA0F-4FD4-B2F5-2ED6952A1800}" type="pres">
-      <dgm:prSet presAssocID="{45516250-18FD-4B9F-B04A-4BBDF8B9CC85}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{45516250-18FD-4B9F-B04A-4BBDF8B9CC85}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A5E820C0-569B-41D8-B1C8-BDEA8A57FA8E}" type="pres">
@@ -2531,7 +2706,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{507F6F4A-F7CA-486A-B4F2-A03C2E357734}" type="pres">
-      <dgm:prSet presAssocID="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="10">
+      <dgm:prSet presAssocID="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2539,7 +2714,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{FA4A9EBD-E380-4992-B69F-C01CE829279C}" type="pres">
-      <dgm:prSet presAssocID="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{97747647-E28B-417F-8723-8476888592F6}" type="pres">
@@ -2555,7 +2730,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E9FB2B47-10B8-4C60-BB00-45897C5C4B8C}" type="pres">
-      <dgm:prSet presAssocID="{F33C00E9-87C9-4DAA-B87A-31B14B13A645}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{F33C00E9-87C9-4DAA-B87A-31B14B13A645}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="8" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1EA6AE46-1922-4A30-BFBA-0F760B67D3B1}" type="pres">
@@ -2571,7 +2746,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0FB6EF08-441A-4271-893D-0CCD8DABB6EE}" type="pres">
-      <dgm:prSet presAssocID="{154CC27A-872D-4292-AE66-021583DC01E5}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="14">
+      <dgm:prSet presAssocID="{154CC27A-872D-4292-AE66-021583DC01E5}" presName="rootText" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2579,15 +2754,51 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B9CEC48E-A07B-47B4-9569-C2919BAA288D}" type="pres">
-      <dgm:prSet presAssocID="{154CC27A-872D-4292-AE66-021583DC01E5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{154CC27A-872D-4292-AE66-021583DC01E5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="8" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" type="pres">
       <dgm:prSet presAssocID="{154CC27A-872D-4292-AE66-021583DC01E5}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{3DAE0608-8C24-44E9-91D0-0111B9E95AFA}" type="pres">
+      <dgm:prSet presAssocID="{36C28FB6-104D-4F58-A0D4-3082DF1BD7C1}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0FCE359A-FB84-4D7B-ABD8-610D1F71F286}" type="pres">
+      <dgm:prSet presAssocID="{B3F60AA0-458A-4695-AD71-B16130B28114}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1700654A-4EBF-46CB-9EEC-5B89D3C98FBF}" type="pres">
+      <dgm:prSet presAssocID="{B3F60AA0-458A-4695-AD71-B16130B28114}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B1B43D1C-5079-4A22-847D-EE2E5C272A8F}" type="pres">
+      <dgm:prSet presAssocID="{B3F60AA0-458A-4695-AD71-B16130B28114}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="14">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8B0B9E6B-4609-43DC-BC4D-1B3188B2830D}" type="pres">
+      <dgm:prSet presAssocID="{B3F60AA0-458A-4695-AD71-B16130B28114}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{89DF2895-2832-40ED-81F5-5C4BE6A0566A}" type="pres">
+      <dgm:prSet presAssocID="{B3F60AA0-458A-4695-AD71-B16130B28114}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{99C34CE4-D228-41CC-9AE2-4F136B8DB9FE}" type="pres">
+      <dgm:prSet presAssocID="{B3F60AA0-458A-4695-AD71-B16130B28114}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{D52FD1B1-95AC-450F-8C9D-D7031800C990}" type="pres">
-      <dgm:prSet presAssocID="{2AD0615E-F17C-403A-B774-676EE5CE23B6}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{2AD0615E-F17C-403A-B774-676EE5CE23B6}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{4BB58B78-D1B0-41DB-BA55-B2097310A8C3}" type="pres">
@@ -2603,7 +2814,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{21CF6A99-0C0F-4A6D-B01F-FE8774FB7FE5}" type="pres">
-      <dgm:prSet presAssocID="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="10">
+      <dgm:prSet presAssocID="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2611,7 +2822,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A6166C0E-DF6D-4ABF-A986-6F99ED41BEBE}" type="pres">
-      <dgm:prSet presAssocID="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{37D0F740-FE94-4A09-B773-EC72AEF6A726}" type="pres">
@@ -2623,7 +2834,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}" type="pres">
-      <dgm:prSet presAssocID="{4017F026-65FF-45B1-BCBB-7B1E21B8DB91}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{4017F026-65FF-45B1-BCBB-7B1E21B8DB91}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" type="pres">
@@ -2639,7 +2850,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}" type="pres">
-      <dgm:prSet presAssocID="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="10">
+      <dgm:prSet presAssocID="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2647,7 +2858,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F511FD29-3A7D-4199-A814-131336B1F2B1}" type="pres">
-      <dgm:prSet presAssocID="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B98A76B9-47AC-4EAE-8A2C-88886B37F67C}" type="pres">
@@ -2659,7 +2870,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}" type="pres">
-      <dgm:prSet presAssocID="{F6D4DFE8-6AF9-4D97-A03F-4DC9087859C9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{F6D4DFE8-6AF9-4D97-A03F-4DC9087859C9}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{7597070F-9B9C-4621-8E48-3283023C23B4}" type="pres">
@@ -2675,7 +2886,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}" type="pres">
-      <dgm:prSet presAssocID="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="10">
+      <dgm:prSet presAssocID="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2683,7 +2894,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1988B68F-9DDA-43FA-BC61-C5E073B74FF9}" type="pres">
-      <dgm:prSet presAssocID="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="10"/>
+      <dgm:prSet presAssocID="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="14"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3B22C8FE-46C4-46CC-A9D4-1DD497D867B9}" type="pres">
@@ -2698,123 +2909,267 @@
       <dgm:prSet presAssocID="{154CC27A-872D-4292-AE66-021583DC01E5}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{93A91305-60A2-46EA-8CD5-7FD7D110CD89}" type="pres">
-      <dgm:prSet presAssocID="{B34E23CE-F197-4163-8DBB-4B168725AE78}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{AC31EAB5-BB58-4C22-97FD-A372676BE36D}" type="pres">
-      <dgm:prSet presAssocID="{0704A606-725D-4DEB-AADB-A526C4C901B2}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{06A067C9-2A23-4E19-B4F8-934185DEA74F}" type="pres">
+      <dgm:prSet presAssocID="{68F1300A-E4F6-4923-BE32-597481D1B931}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="9" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28316453-1646-4AEF-8FE0-3F5416C80DAF}" type="pres">
+      <dgm:prSet presAssocID="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{FDA0C1C3-4594-412F-B54A-4E4B39C6DEF8}" type="pres">
-      <dgm:prSet presAssocID="{0704A606-725D-4DEB-AADB-A526C4C901B2}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{ADF927DA-AD9A-44EC-AFBA-B9FD9C5A5CFC}" type="pres">
-      <dgm:prSet presAssocID="{0704A606-725D-4DEB-AADB-A526C4C901B2}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="14">
+    <dgm:pt modelId="{33277512-D38C-4461-9BDD-737AAA6E4758}" type="pres">
+      <dgm:prSet presAssocID="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C76C37A3-C74A-412C-85F8-3B8A23A7AFD4}" type="pres">
+      <dgm:prSet presAssocID="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" presName="rootText" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="15" custLinFactNeighborY="-1856">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{CC61456B-015B-4336-90BA-1A6DE81E5C47}" type="pres">
-      <dgm:prSet presAssocID="{0704A606-725D-4DEB-AADB-A526C4C901B2}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="14"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{1FD5A8FC-69FE-47AA-92F7-D3EFE078D240}" type="pres">
-      <dgm:prSet presAssocID="{0704A606-725D-4DEB-AADB-A526C4C901B2}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{DD21CCA5-4284-4FAF-A462-BB6E99B145AC}" type="pres">
-      <dgm:prSet presAssocID="{71BEA269-0EA5-4859-894F-720DF6295D15}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="10"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BDEFA403-E61E-42C7-AF2C-1D09FA5F14F7}" type="pres">
-      <dgm:prSet presAssocID="{0DB7CE20-685C-475E-A815-6019A7BC2058}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{3E448F96-CB1B-49C4-B8ED-BF4BC0F29765}" type="pres">
+      <dgm:prSet presAssocID="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="9" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{21AF1E1A-E39E-4D84-B366-60478B708045}" type="pres">
+      <dgm:prSet presAssocID="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F096332-9D9C-4CCD-B93A-646E27709E98}" type="pres">
+      <dgm:prSet presAssocID="{58762816-7F72-45B2-8049-D642B5F2BBE0}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{080DB030-05DD-4D0E-8BCB-E82A0DE87530}" type="pres">
+      <dgm:prSet presAssocID="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{DBFE5934-651F-4D3D-85E1-640C1A15E9E4}" type="pres">
-      <dgm:prSet presAssocID="{0DB7CE20-685C-475E-A815-6019A7BC2058}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BBC36BAB-231F-4B23-86CC-D68A24629DF5}" type="pres">
-      <dgm:prSet presAssocID="{0DB7CE20-685C-475E-A815-6019A7BC2058}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="10">
+    <dgm:pt modelId="{9E4D44E4-13C4-451F-80F0-DA535E2EB934}" type="pres">
+      <dgm:prSet presAssocID="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{680396CC-B233-45C7-B9ED-C7C227734598}" type="pres">
+      <dgm:prSet presAssocID="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{F2D7F749-312C-44C0-A45E-FC481952FAC8}" type="pres">
-      <dgm:prSet presAssocID="{0DB7CE20-685C-475E-A815-6019A7BC2058}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="10"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{6FAAFD5A-68F2-4FEA-92CF-3D8E4766B506}" type="pres">
-      <dgm:prSet presAssocID="{0DB7CE20-685C-475E-A815-6019A7BC2058}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{72D8D39B-D74B-4BF3-99BC-D26B8B137AC0}" type="pres">
-      <dgm:prSet presAssocID="{0DB7CE20-685C-475E-A815-6019A7BC2058}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{A57D0D43-C065-4AC0-BEF0-F336687429D4}" type="pres">
-      <dgm:prSet presAssocID="{22A28B6F-9155-4873-9FBD-E8723694A633}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="10"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{AAD113C1-77C6-4EA5-8538-FD1B5517FC32}" type="pres">
-      <dgm:prSet presAssocID="{DB071562-A344-416B-A075-15565B399A4C}" presName="hierRoot2" presStyleCnt="0">
+    <dgm:pt modelId="{4E6E8540-C076-47A5-A673-80196A8135D6}" type="pres">
+      <dgm:prSet presAssocID="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FB3A66E6-C22B-486B-8BBC-2DED0A613BE0}" type="pres">
+      <dgm:prSet presAssocID="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0221E933-EEC9-4AA2-AB67-99C410E8E677}" type="pres">
+      <dgm:prSet presAssocID="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7DE8D592-E9C1-419A-8B79-C0E03DE00E8E}" type="pres">
+      <dgm:prSet presAssocID="{F5B769D4-0BD4-4420-9ECA-453D52A5534D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{18D51BDA-B001-4729-B8CB-A2C3F8BABB21}" type="pres">
+      <dgm:prSet presAssocID="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{6B8B4431-5726-4714-BD57-7C247FB76813}" type="pres">
-      <dgm:prSet presAssocID="{DB071562-A344-416B-A075-15565B399A4C}" presName="rootComposite" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{60E4B04E-BE08-47D8-818C-5A7FC975E207}" type="pres">
-      <dgm:prSet presAssocID="{DB071562-A344-416B-A075-15565B399A4C}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="10">
+    <dgm:pt modelId="{2968F568-3EF8-4E0A-B390-714529E2476B}" type="pres">
+      <dgm:prSet presAssocID="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{614000A1-3325-4553-A5EE-A6418902004F}" type="pres">
+      <dgm:prSet presAssocID="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="14">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{45AC7ABD-8300-4E00-A8F0-85397E2A06BB}" type="pres">
-      <dgm:prSet presAssocID="{DB071562-A344-416B-A075-15565B399A4C}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="10"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{AD8AFFC5-D5B0-48FE-B72E-D243885E6C91}" type="pres">
-      <dgm:prSet presAssocID="{DB071562-A344-416B-A075-15565B399A4C}" presName="hierChild4" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{321AF302-18D9-4E3C-9957-44FC69B887A9}" type="pres">
-      <dgm:prSet presAssocID="{DB071562-A344-416B-A075-15565B399A4C}" presName="hierChild5" presStyleCnt="0"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{BCE2D1CB-FDE9-43F3-BBB2-D15E210DC7AC}" type="pres">
-      <dgm:prSet presAssocID="{0704A606-725D-4DEB-AADB-A526C4C901B2}" presName="hierChild5" presStyleCnt="0"/>
+    <dgm:pt modelId="{C6BC5807-A995-4951-BD4D-501C91E41472}" type="pres">
+      <dgm:prSet presAssocID="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59F19534-0624-43B4-96A0-68791FE0C715}" type="pres">
+      <dgm:prSet presAssocID="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FDDACEB5-EBE6-45A7-8603-F0B447982B9B}" type="pres">
+      <dgm:prSet presAssocID="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{797A0EA7-5C54-491D-A6D6-144A18EE8B38}" type="pres">
+      <dgm:prSet presAssocID="{1AF0883B-0D27-4742-AD75-084E3CF64A31}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E5ABC667-417C-4F47-A331-8890561CD0E1}" type="pres">
+      <dgm:prSet presAssocID="{6114837B-A69F-4558-BA58-7EA1939E4924}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{18A95998-2F82-49CD-AEDF-2D838AE537E9}" type="pres">
+      <dgm:prSet presAssocID="{6114837B-A69F-4558-BA58-7EA1939E4924}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6DF9FE6C-2AE3-468A-A578-5ED119A81539}" type="pres">
+      <dgm:prSet presAssocID="{6114837B-A69F-4558-BA58-7EA1939E4924}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="14">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A743D5E-57D1-4BB2-BFF3-378C4B917620}" type="pres">
+      <dgm:prSet presAssocID="{6114837B-A69F-4558-BA58-7EA1939E4924}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AB979BEB-587E-4C01-BEEE-91A1993B20C1}" type="pres">
+      <dgm:prSet presAssocID="{6114837B-A69F-4558-BA58-7EA1939E4924}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{648C32AB-2F02-459F-AE96-92F52B961B59}" type="pres">
+      <dgm:prSet presAssocID="{6114837B-A69F-4558-BA58-7EA1939E4924}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76177ACC-AA14-4297-AB73-337FB4393615}" type="pres">
+      <dgm:prSet presAssocID="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CA6BB33-226E-4B04-A300-1B218D976C9A}" type="pres">
+      <dgm:prSet presAssocID="{7991ACE2-9D56-4A31-AFC8-D6D1F6A1753F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D6425FB0-F171-4E67-A2B8-855F1B664B1E}" type="pres">
+      <dgm:prSet presAssocID="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{643A0111-FF34-4EAE-B894-98FCBB0814FC}" type="pres">
+      <dgm:prSet presAssocID="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FEB0F4C-CE8F-4E74-935E-5E1BB523FAD5}" type="pres">
+      <dgm:prSet presAssocID="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="15">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C5A5426-FD35-46E6-AC62-C5E2F92A87A1}" type="pres">
+      <dgm:prSet presAssocID="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="15"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CBAC4C0B-E741-48DB-B2CC-4EF39A7E752E}" type="pres">
+      <dgm:prSet presAssocID="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{909F10C2-85CF-4E9C-BA38-CDC31F80BC6D}" type="pres">
+      <dgm:prSet presAssocID="{342DDF2E-3BB5-4452-A11E-A094FD54183B}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{11EF346F-8FD8-4321-8EA5-FD3E3E7A6426}" type="pres">
+      <dgm:prSet presAssocID="{9A5FA836-256E-40AD-9535-0788B97D51DA}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C5CE2A9F-EBF4-4B20-8866-77EA42E8D91B}" type="pres">
+      <dgm:prSet presAssocID="{9A5FA836-256E-40AD-9535-0788B97D51DA}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F695EC9B-139B-412C-BA00-6035C73DD0A1}" type="pres">
+      <dgm:prSet presAssocID="{9A5FA836-256E-40AD-9535-0788B97D51DA}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="14">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{59955954-7D9A-456B-ACAD-9F81C8A2F3DF}" type="pres">
+      <dgm:prSet presAssocID="{9A5FA836-256E-40AD-9535-0788B97D51DA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1D99F2ED-46EB-45E8-9D49-A734D73ABFCA}" type="pres">
+      <dgm:prSet presAssocID="{9A5FA836-256E-40AD-9535-0788B97D51DA}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{170F3979-DAEC-4AED-A9A6-115B2E7A0C2E}" type="pres">
+      <dgm:prSet presAssocID="{9A5FA836-256E-40AD-9535-0788B97D51DA}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D15BEF85-926D-4584-AE39-92D3442E3320}" type="pres">
+      <dgm:prSet presAssocID="{C39F7D3A-B3F6-4DE7-9D3B-A29FA2CF603D}" presName="Name37" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2665D88A-DA1C-4FE8-AE92-549A3559CA9A}" type="pres">
+      <dgm:prSet presAssocID="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A79AD40C-0EC5-458F-BE49-CBC0B387DA0A}" type="pres">
+      <dgm:prSet presAssocID="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CA292C00-ECB2-4D45-A374-410673F1F792}" type="pres">
+      <dgm:prSet presAssocID="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="14">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2C4889E4-5658-4463-90E9-724432EDF719}" type="pres">
+      <dgm:prSet presAssocID="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="14"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ECA5EC5B-A2BA-48F7-84D8-064ED533650D}" type="pres">
+      <dgm:prSet presAssocID="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{95702008-A8A1-4704-9F3F-5B5E7849A2A2}" type="pres">
+      <dgm:prSet presAssocID="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C37EAF6C-17C9-40A4-805D-A8198D672A95}" type="pres">
+      <dgm:prSet presAssocID="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C3627701-1053-4992-90CF-63508487D199}" type="pres">
       <dgm:prSet presAssocID="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{6B1475D4-95C0-40DE-8657-0FCEDF51B719}" type="pres">
+    <dgm:pt modelId="{B8D6F4F6-4F05-4250-8950-944B2FEC0612}" type="pres">
       <dgm:prSet presAssocID="{7C5C710D-3B5A-4D7B-8616-5606FDFB0065}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{733D5A87-F6E8-4BAB-9052-4746505BD35A}" type="pres">
+    <dgm:pt modelId="{DDFB9A72-EFF1-4DFC-8838-8B36B26D5D29}" type="pres">
       <dgm:prSet presAssocID="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
@@ -2822,11 +3177,11 @@
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{11E2D3CD-BEA2-467E-8101-528DE5DE1828}" type="pres">
+    <dgm:pt modelId="{20384ACF-1AF9-4815-B118-DE065A41CE2A}" type="pres">
       <dgm:prSet presAssocID="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{E8CF37C5-87DA-41EA-8E35-AEAB031BA343}" type="pres">
+    <dgm:pt modelId="{1AB0C6A8-E043-40F2-A702-CC140619702E}" type="pres">
       <dgm:prSet presAssocID="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" presName="rootText" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
@@ -2834,16 +3189,16 @@
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{EEA6228C-11D9-4D7E-981F-35B326CEA299}" type="pres">
+    <dgm:pt modelId="{29367A21-97DC-4867-B657-A9F2A6E8DC0A}" type="pres">
       <dgm:prSet presAssocID="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{766E8EF6-7B17-4070-AE74-03DBCC78A356}" type="pres">
+    <dgm:pt modelId="{D7B28321-1137-4E16-AFFA-2E8F8C9823BE}" type="pres">
       <dgm:prSet presAssocID="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{35E5EB62-477F-4D68-BD20-3D51C9FFE339}" type="pres">
-      <dgm:prSet presAssocID="{62158943-724A-42F9-9D8D-3E5AF54CFFBD}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="10" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{62158943-724A-42F9-9D8D-3E5AF54CFFBD}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" type="pres">
@@ -2859,7 +3214,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}" type="pres">
-      <dgm:prSet presAssocID="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" presName="rootText" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="14">
+      <dgm:prSet presAssocID="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2867,7 +3222,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B14B5E2B-E231-4CAD-B441-9F180C3716C7}" type="pres">
-      <dgm:prSet presAssocID="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="10" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C8B74F36-3E73-4F7B-BED8-599B863EADBA}" type="pres">
@@ -2879,7 +3234,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{88684612-DA9B-46C1-A69F-92A0CC8FEB09}" type="pres">
-      <dgm:prSet presAssocID="{CCD12B76-EA7F-4F53-BA39-372B4F52285F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{CCD12B76-EA7F-4F53-BA39-372B4F52285F}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" type="pres">
@@ -2895,7 +3250,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{66C8E0B7-413A-4657-B605-B1850669335D}" type="pres">
-      <dgm:prSet presAssocID="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" presName="rootText" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="14">
+      <dgm:prSet presAssocID="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2903,7 +3258,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D0D71C9C-1FCF-4742-96A1-BABE68BB5801}" type="pres">
-      <dgm:prSet presAssocID="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="11" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E58D569F-4A1D-4011-9EF0-6493D9BABC98}" type="pres">
@@ -2914,7 +3269,7 @@
       <dgm:prSet presAssocID="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{B93B631E-0AC5-47F8-8D34-2F80A14401D4}" type="pres">
+    <dgm:pt modelId="{37A9E18C-243E-4E60-86DA-571B44F4AA94}" type="pres">
       <dgm:prSet presAssocID="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
@@ -2951,7 +3306,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{20041C7C-A825-43E8-9B0B-5E951E44ED11}" type="pres">
-      <dgm:prSet presAssocID="{E0563CA2-D379-4ACB-9605-15E021018B74}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="12" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{E0563CA2-D379-4ACB-9605-15E021018B74}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" type="pres">
@@ -2967,7 +3322,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{06B24196-9BE0-40B7-837E-4CA122299E99}" type="pres">
-      <dgm:prSet presAssocID="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" presName="rootText" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="14">
+      <dgm:prSet presAssocID="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -2975,7 +3330,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{3A359726-23A4-439B-A1D4-A345EE4E9BDF}" type="pres">
-      <dgm:prSet presAssocID="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="12" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A1457FA6-91D3-4072-9E21-5181A2A95AD6}" type="pres">
@@ -2987,7 +3342,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1A4B1958-277E-4537-806C-DA68D20A9833}" type="pres">
-      <dgm:prSet presAssocID="{DF126405-2717-49B7-8009-BE92A334CB44}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="13" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{DF126405-2717-49B7-8009-BE92A334CB44}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="14" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" type="pres">
@@ -3003,7 +3358,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DB044D53-EFD4-4DED-A266-579012D33CD6}" type="pres">
-      <dgm:prSet presAssocID="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" presName="rootText" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="14">
+      <dgm:prSet presAssocID="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" presName="rootText" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="15">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -3011,7 +3366,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6DF22A27-481D-435B-BD0F-ED4070A696F8}" type="pres">
-      <dgm:prSet presAssocID="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="13" presStyleCnt="14"/>
+      <dgm:prSet presAssocID="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="14" presStyleCnt="15"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F66A1AEB-37CB-4133-BD45-DFF0451FFBC9}" type="pres">
@@ -3032,126 +3387,146 @@
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{69E97A01-91E9-40EE-AFF3-E2FA8027535C}" type="presOf" srcId="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" destId="{DB044D53-EFD4-4DED-A266-579012D33CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4537DF00-3206-4E43-A0B7-32F72230ABEC}" type="presOf" srcId="{4E992FD1-D33F-4D01-AC16-49EE43C3DAAF}" destId="{DF1ABF27-316D-427A-A0B0-7C24AFE846AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7742B601-1EE7-40D3-93F7-85462866EEA6}" type="presOf" srcId="{7991ACE2-9D56-4A31-AFC8-D6D1F6A1753F}" destId="{3CA6BB33-226E-4B04-A300-1B218D976C9A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DA68C503-8866-4EDF-81B2-5F209190896C}" type="presOf" srcId="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" destId="{FA4A9EBD-E380-4992-B69F-C01CE829279C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{197C6005-BADC-4158-8069-4D7F5A5F3999}" type="presOf" srcId="{E0563CA2-D379-4ACB-9605-15E021018B74}" destId="{20041C7C-A825-43E8-9B0B-5E951E44ED11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D605E103-D979-4FD0-A0AD-C7C9CA69464A}" type="presOf" srcId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" destId="{1AB0C6A8-E043-40F2-A702-CC140619702E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{97CFC905-80B6-471C-A245-237E82D08CD0}" type="presOf" srcId="{6E2999F4-5C4D-4AFE-ABC2-1AEC224496A9}" destId="{8BDD2352-009F-4F3B-B6FB-371F8CB8D066}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0066CA05-5A74-4FDC-91E5-EC3AA8D43B1A}" type="presOf" srcId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" destId="{EEA6228C-11D9-4D7E-981F-35B326CEA299}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F8941008-F2EF-4654-AD5D-D4EB59DABB3A}" type="presOf" srcId="{4017F026-65FF-45B1-BCBB-7B1E21B8DB91}" destId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{09A76008-72EA-4FCD-A09A-EA12A6831B4C}" type="presOf" srcId="{344D278C-B0D7-4BA6-9CE7-0894A44727CD}" destId="{4FBA8923-B634-4404-8D5E-7C4FFEFDCFF2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{BBC0D70B-57AD-4AC9-BAE3-71B0075046FF}" type="presOf" srcId="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" destId="{BFF237AF-4CFE-4407-AF96-B11BDA8B2897}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7964DE0C-3CAB-4DC8-B135-822DBC656813}" type="presOf" srcId="{F5B769D4-0BD4-4420-9ECA-453D52A5534D}" destId="{7DE8D592-E9C1-419A-8B79-C0E03DE00E8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{241A1C14-DC65-4DBD-8822-22735FB9D58D}" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" srcOrd="2" destOrd="0" parTransId="{8781E909-5F7C-4FC7-8FE9-DD8BB17BDAEB}" sibTransId="{1F32C5BD-FD27-4DDC-BBDA-BBE8A5C30888}"/>
     <dgm:cxn modelId="{141B6314-0D70-4485-B50C-EE498D503F01}" type="presOf" srcId="{F33C00E9-87C9-4DAA-B87A-31B14B13A645}" destId="{E9FB2B47-10B8-4C60-BB00-45897C5C4B8C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5E442016-0D42-4A42-A5C4-D11EB63D2DCC}" type="presOf" srcId="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" destId="{2C4889E4-5658-4463-90E9-724432EDF719}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7E43FD16-A302-42DD-99F0-87E9C6288EF1}" type="presOf" srcId="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" destId="{8580DD08-3861-492A-8558-60F100657A41}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{7D1D331A-819D-4E88-90B8-CF204D29E4B9}" type="presOf" srcId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" destId="{BE8F7AF8-851D-4D86-8F4C-95FD4ECB8CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A80AC41C-93CB-4633-AD96-E1F8FC112051}" type="presOf" srcId="{DF126405-2717-49B7-8009-BE92A334CB44}" destId="{1A4B1958-277E-4537-806C-DA68D20A9833}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{53801D1D-930F-42BC-904E-7642C79D4083}" srcId="{0704A606-725D-4DEB-AADB-A526C4C901B2}" destId="{DB071562-A344-416B-A075-15565B399A4C}" srcOrd="1" destOrd="0" parTransId="{22A28B6F-9155-4873-9FBD-E8723694A633}" sibTransId="{85236DF4-72AF-4AEB-8F93-9028B2B4CC3A}"/>
+    <dgm:cxn modelId="{958A4A17-5433-4FE4-9AEC-9F6DD6F99C90}" type="presOf" srcId="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" destId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{31376F17-56CC-4FC3-9D7A-38142693EA5B}" srcId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" destId="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" srcOrd="1" destOrd="0" parTransId="{F5B769D4-0BD4-4420-9ECA-453D52A5534D}" sibTransId="{08C494F2-7A87-4907-846E-BBF8D34E198C}"/>
+    <dgm:cxn modelId="{F348CE18-37A6-4F53-AA3D-A59B781CC494}" type="presOf" srcId="{E0563CA2-D379-4ACB-9605-15E021018B74}" destId="{20041C7C-A825-43E8-9B0B-5E951E44ED11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5622751D-096A-49A7-9AC7-44C4329E81D8}" type="presOf" srcId="{58762816-7F72-45B2-8049-D642B5F2BBE0}" destId="{1F096332-9D9C-4CCD-B93A-646E27709E98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{31180D20-549E-4B84-A03E-285B2BBD9487}" type="presOf" srcId="{9A5FA836-256E-40AD-9535-0788B97D51DA}" destId="{59955954-7D9A-456B-ACAD-9F81C8A2F3DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C49BC122-93EA-4986-94BE-EB5E62F59A85}" srcId="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" destId="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" srcOrd="1" destOrd="0" parTransId="{92742C87-9714-41A4-9166-09A9B878C25A}" sibTransId="{28BFB098-7FB0-4D0E-A9B5-F04DDF9DB3B5}"/>
-    <dgm:cxn modelId="{FFC1C322-6D0B-45C2-B9F5-6161CA3225D3}" type="presOf" srcId="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" destId="{B14B5E2B-E231-4CAD-B441-9F180C3716C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CC67CF23-4B91-4603-A1FC-1EDC5F610009}" type="presOf" srcId="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" destId="{CD6497D3-ECDA-44A1-B852-B51EFC12A20C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{17254025-0F85-4B70-ACDE-FDAC19F55C92}" type="presOf" srcId="{71BEA269-0EA5-4859-894F-720DF6295D15}" destId="{DD21CCA5-4284-4FAF-A462-BB6E99B145AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{74AB0B24-2598-47AD-B778-C1E3A6D95640}" type="presOf" srcId="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" destId="{F511FD29-3A7D-4199-A814-131336B1F2B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{17207A27-7F6E-48F7-A8DE-46FD07CE6A7B}" srcId="{010AEB20-172A-444B-A698-2AEDCE4DB033}" destId="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" srcOrd="0" destOrd="0" parTransId="{3381AFF7-31DF-48CF-B620-33AA7D9EDA0A}" sibTransId="{A5C5133E-931B-401D-8D60-EE4611616108}"/>
     <dgm:cxn modelId="{79FB1429-B266-4C32-9363-5F4C0F61A24F}" type="presOf" srcId="{04FF8E3F-2021-41A0-BD4B-C614417A660D}" destId="{895954F6-2A42-4319-8C8D-C75F5562EE3B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E284AB29-2561-4F08-B53A-DEFB7CEFD239}" type="presOf" srcId="{15270B7C-1EF3-4645-9BB8-FFB240291D2C}" destId="{D596D8B9-FE68-46DC-9E63-356C36294D86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7101D829-7EF3-456C-B570-386E488A4FCD}" srcId="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" destId="{9A5FA836-256E-40AD-9535-0788B97D51DA}" srcOrd="0" destOrd="0" parTransId="{342DDF2E-3BB5-4452-A11E-A094FD54183B}" sibTransId="{76DAECD5-6F6B-4820-A027-93BB677F1AC7}"/>
+    <dgm:cxn modelId="{63607A2C-BB1E-4517-A110-166B9776D328}" type="presOf" srcId="{C39F7D3A-B3F6-4DE7-9D3B-A29FA2CF603D}" destId="{D15BEF85-926D-4584-AE39-92D3442E3320}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{8021172D-0A19-473F-BCAA-FA9CBB8F495F}" type="presOf" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{08CB9636-4554-44F4-8235-6F593A6F4818}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A069AB2F-88D7-44F6-90D8-F833158B879E}" type="presOf" srcId="{68F1300A-E4F6-4923-BE32-597481D1B931}" destId="{06A067C9-2A23-4E19-B4F8-934185DEA74F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6484B92F-3CFD-40E2-B24E-9DF509006025}" type="presOf" srcId="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" destId="{2B1DAA27-9AC5-43B3-A7A7-E65F3D2A91FE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8BF9F939-2EB6-4ED6-A10F-3EBA74FECDB6}" type="presOf" srcId="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" destId="{D0D71C9C-1FCF-4742-96A1-BABE68BB5801}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CB7A4C31-F987-4760-9D48-EBAF5FBB25C3}" type="presOf" srcId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" destId="{29367A21-97DC-4867-B657-A9F2A6E8DC0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C0B75231-0E7B-4152-9292-B4514B21A979}" type="presOf" srcId="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" destId="{1988B68F-9DDA-43FA-BC61-C5E073B74FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1094F637-CCC1-4DB7-A53B-08118D7A47FA}" type="presOf" srcId="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" destId="{4FEB0F4C-CE8F-4E74-935E-5E1BB523FAD5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AE95813B-C6FC-46F7-9839-BF0B6286F9A8}" type="presOf" srcId="{1AF0883B-0D27-4742-AD75-084E3CF64A31}" destId="{797A0EA7-5C54-491D-A6D6-144A18EE8B38}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A5633C-E397-460D-B263-EF1CA45900E1}" srcId="{C7A14D1B-5FBC-4C86-AF79-DC7D4B8F98A2}" destId="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" srcOrd="0" destOrd="0" parTransId="{27093E14-D501-468A-9F51-5304F86607C3}" sibTransId="{800EC838-5BFA-4200-9CE9-9AEAAB00578C}"/>
+    <dgm:cxn modelId="{6195703C-BE34-468B-B8FA-9E365CA8C437}" type="presOf" srcId="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" destId="{DB044D53-EFD4-4DED-A266-579012D33CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F9D87B3C-5647-4A47-ABF2-34071C15A7D4}" type="presOf" srcId="{010AEB20-172A-444B-A698-2AEDCE4DB033}" destId="{390854E5-0328-4DE7-B2C7-500352353C74}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{AD4F983C-3D2A-4223-AEF3-DC9FAF8CAF70}" type="presOf" srcId="{22A28B6F-9155-4873-9FBD-E8723694A633}" destId="{A57D0D43-C065-4AC0-BEF0-F336687429D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6BBBE43F-09C1-4490-B14D-E431C5787FF9}" type="presOf" srcId="{DF126405-2717-49B7-8009-BE92A334CB44}" destId="{1A4B1958-277E-4537-806C-DA68D20A9833}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D049F040-32B9-48A0-AB8B-FA5C380CC749}" type="presOf" srcId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" destId="{C76C37A3-C74A-412C-85F8-3B8A23A7AFD4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{21A9055B-CD9B-4904-8E43-260BF5FFDDC7}" type="presOf" srcId="{92742C87-9714-41A4-9166-09A9B878C25A}" destId="{60197C03-CCB1-462D-9D65-0EA45CDB37EC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{86302841-D19D-46A7-A9C0-71CC6F23EA7A}" type="presOf" srcId="{EB376DC6-5BFF-467B-8693-87FA67955008}" destId="{C35FFB2F-083B-4C9F-B1F5-8C1DD4EBBA89}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2EEF6663-407B-4C5D-95AD-5AAC7B63680E}" type="presOf" srcId="{0704A606-725D-4DEB-AADB-A526C4C901B2}" destId="{CC61456B-015B-4336-90BA-1A6DE81E5C47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CFD1D262-359B-49F1-9F50-C993B3AFE726}" type="presOf" srcId="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" destId="{614000A1-3325-4553-A5EE-A6418902004F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BB691064-14E7-4962-9F6E-71468A2970A0}" type="presOf" srcId="{B3F60AA0-458A-4695-AD71-B16130B28114}" destId="{B1B43D1C-5079-4A22-847D-EE2E5C272A8F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E5F58B64-7C97-4A12-A4D4-1B4BC7E7992A}" type="presOf" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{14CB02A2-0495-451C-8581-41091D0E72D8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{893EB044-B2F9-4A00-BCA7-01C1849AABB7}" srcId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" destId="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" srcOrd="1" destOrd="0" parTransId="{DF126405-2717-49B7-8009-BE92A334CB44}" sibTransId="{60AB66CB-F1ED-4F08-B0BE-BEA52FA8F976}"/>
     <dgm:cxn modelId="{B6D6EF64-2905-48E8-AA9D-A90022475F71}" type="presOf" srcId="{AD8412D1-279E-4A84-BC2B-90695530C790}" destId="{031E4E57-97B9-4CEB-A94B-3E09959EA92D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6C4F1045-CC3D-4D75-9EB5-64E581A2465D}" type="presOf" srcId="{DB071562-A344-416B-A075-15565B399A4C}" destId="{45AC7ABD-8300-4E00-A8F0-85397E2A06BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6E4FFD44-59B7-487B-B5D3-2B8796A671D4}" type="presOf" srcId="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" destId="{3A359726-23A4-439B-A1D4-A345EE4E9BDF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{868AC246-715D-4D03-B3A7-1189F14324BF}" srcId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" destId="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" srcOrd="0" destOrd="0" parTransId="{E0563CA2-D379-4ACB-9605-15E021018B74}" sibTransId="{069AA136-8888-4651-96C2-0C932F118CC7}"/>
     <dgm:cxn modelId="{F8851268-434B-49F5-8FE3-3CDADA4918C7}" srcId="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" destId="{EB376DC6-5BFF-467B-8693-87FA67955008}" srcOrd="1" destOrd="0" parTransId="{779F565D-18CC-4DB4-8588-D1C1C425D38D}" sibTransId="{0E4623C9-FAC1-488C-8D25-D74249CD765F}"/>
     <dgm:cxn modelId="{DBB0CC49-BAC6-4B71-84D7-C2E5A22CF22C}" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" srcOrd="4" destOrd="0" parTransId="{4E992FD1-D33F-4D01-AC16-49EE43C3DAAF}" sibTransId="{A719419F-2477-4AC8-883F-1055B3FC6DF5}"/>
     <dgm:cxn modelId="{E245CF49-F182-4A30-9D78-8AFA29A71C2B}" type="presOf" srcId="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" destId="{E6C985B5-0D5E-4AF4-8098-1DBEE5E52420}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3EB3D54A-4AD2-4607-80DF-6DCC91F9C404}" type="presOf" srcId="{7C5C710D-3B5A-4D7B-8616-5606FDFB0065}" destId="{6B1475D4-95C0-40DE-8657-0FCEDF51B719}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6AD4106C-7926-4085-8224-5F6317DDE8D2}" srcId="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" destId="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" srcOrd="1" destOrd="0" parTransId="{C39F7D3A-B3F6-4DE7-9D3B-A29FA2CF603D}" sibTransId="{35C99F39-3389-4F3C-A35B-71E911AC24CF}"/>
     <dgm:cxn modelId="{6DF6AC4D-35AF-46E1-89D3-9D7FADC3F3FC}" type="presOf" srcId="{2AD0615E-F17C-403A-B774-676EE5CE23B6}" destId="{D52FD1B1-95AC-450F-8C9D-D7031800C990}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{7F9D9551-396A-49AB-82FD-F4592208EE54}" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{010AEB20-172A-444B-A698-2AEDCE4DB033}" srcOrd="1" destOrd="0" parTransId="{344D278C-B0D7-4BA6-9CE7-0894A44727CD}" sibTransId="{13BADE66-3F0C-49CE-AA46-CEDF9D62C9C5}"/>
-    <dgm:cxn modelId="{D7FFCE51-83CC-4DA2-A884-F09A0E1F15A5}" type="presOf" srcId="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" destId="{1988B68F-9DDA-43FA-BC61-C5E073B74FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{46F57E53-E7A7-4D57-9055-A4EE7AB95A70}" type="presOf" srcId="{779F565D-18CC-4DB4-8588-D1C1C425D38D}" destId="{DCD7312B-2312-4AAE-A452-C72076DB08CE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{61142174-94D0-43B3-8ECD-8FA9AB03215E}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" srcOrd="0" destOrd="0" parTransId="{2AD0615E-F17C-403A-B774-676EE5CE23B6}" sibTransId="{1FBA964D-6BA8-4165-97AA-DB3C9DF82B0B}"/>
+    <dgm:cxn modelId="{61142174-94D0-43B3-8ECD-8FA9AB03215E}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" srcOrd="1" destOrd="0" parTransId="{2AD0615E-F17C-403A-B774-676EE5CE23B6}" sibTransId="{1FBA964D-6BA8-4165-97AA-DB3C9DF82B0B}"/>
     <dgm:cxn modelId="{1EB16974-19C1-4A59-8AF4-3F3F612A4B05}" type="presOf" srcId="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" destId="{D02BF1AA-2210-428F-A250-CF9530125968}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F5E37054-04B7-41DF-AB9B-429CF4CF3FE1}" type="presOf" srcId="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" destId="{B203DC29-7D23-4970-985F-CC805B991DC5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{750B7A75-2B22-4FBE-BDB7-38552D1DE6BC}" srcId="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" destId="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" srcOrd="0" destOrd="0" parTransId="{6E2999F4-5C4D-4AFE-ABC2-1AEC224496A9}" sibTransId="{19FC5B9A-79CB-4913-B16F-B042ED02CA09}"/>
     <dgm:cxn modelId="{3039C676-AD50-4ECB-B043-49166967124E}" type="presOf" srcId="{EB376DC6-5BFF-467B-8693-87FA67955008}" destId="{4E700E82-17A6-4514-B183-5A77AE098D2D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{25810A57-700E-40A5-9565-06CE19779B73}" type="presOf" srcId="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" destId="{C1D64DAF-F350-42E5-9870-63D105F0512F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{12810F79-52AD-4BF9-B468-A1155E459348}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" srcOrd="1" destOrd="0" parTransId="{4017F026-65FF-45B1-BCBB-7B1E21B8DB91}" sibTransId="{247B61C9-05AF-45B2-BDA7-7C3D597F3D75}"/>
+    <dgm:cxn modelId="{D940CD77-7F27-4538-BC96-7CBAB8105E5A}" type="presOf" srcId="{4017F026-65FF-45B1-BCBB-7B1E21B8DB91}" destId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36EC0F58-E135-4F7F-938A-0707741D3C7D}" type="presOf" srcId="{9A5FA836-256E-40AD-9535-0788B97D51DA}" destId="{F695EC9B-139B-412C-BA00-6035C73DD0A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1575E978-ACA7-4C96-A2FE-11F20CA016AF}" type="presOf" srcId="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" destId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{12810F79-52AD-4BF9-B468-A1155E459348}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" srcOrd="2" destOrd="0" parTransId="{4017F026-65FF-45B1-BCBB-7B1E21B8DB91}" sibTransId="{247B61C9-05AF-45B2-BDA7-7C3D597F3D75}"/>
     <dgm:cxn modelId="{08C14279-6729-44F2-B830-E9A72998C0C7}" type="presOf" srcId="{C7A14D1B-5FBC-4C86-AF79-DC7D4B8F98A2}" destId="{161E46FF-FAF8-40C1-9A12-13D191DBC7EB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5E5C4979-3A7F-4BC4-B621-D136FE2BAA8B}" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" srcOrd="0" destOrd="0" parTransId="{4531B5E0-99E0-4A0F-934E-4DAAB778FAF4}" sibTransId="{382AD045-1C2A-45F6-BD7C-5ED0C0577CE9}"/>
     <dgm:cxn modelId="{D9364E59-C3BA-460B-BD15-7073F9F9C698}" srcId="{C7A14D1B-5FBC-4C86-AF79-DC7D4B8F98A2}" destId="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" srcOrd="2" destOrd="0" parTransId="{AD8412D1-279E-4A84-BC2B-90695530C790}" sibTransId="{F4F4075B-5F5D-44E5-B8A6-A59E3C4F3A97}"/>
     <dgm:cxn modelId="{97A7D57C-B358-4315-8FCA-E52D12B79865}" srcId="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" destId="{E98759FD-393F-4768-990F-9F1C7F9DE503}" srcOrd="0" destOrd="0" parTransId="{E008DEAC-C1F8-4FB3-90EF-431A01FBA815}" sibTransId="{C53DF1A0-C21C-48BA-A8E0-86963D23481B}"/>
     <dgm:cxn modelId="{01D8D27D-AF54-42F0-A8BA-801AB6C1475F}" type="presOf" srcId="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" destId="{000B74B3-10BE-4E03-8A63-DD3088511EC3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{590C9982-C62F-4CEF-8F32-0620672C3F48}" type="presOf" srcId="{5F58C0C8-1E3A-4D5D-832A-746B8F8ED7F4}" destId="{122A6402-9F8E-4910-8B26-6644CB4BABB6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1AFCCC83-DC85-4FA0-8BB7-928E0732FFC0}" type="presOf" srcId="{0DB7CE20-685C-475E-A815-6019A7BC2058}" destId="{F2D7F749-312C-44C0-A45E-FC481952FAC8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{846C2384-FE95-4CC2-A4D3-EBD9093BE8AF}" type="presOf" srcId="{4531B5E0-99E0-4A0F-934E-4DAAB778FAF4}" destId="{2B1BA499-4738-4F7D-9D9E-3476D4DB46A8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{02322E86-DF97-45C6-9190-9F21CB852CE6}" type="presOf" srcId="{45516250-18FD-4B9F-B04A-4BBDF8B9CC85}" destId="{D7AD3CD4-FA0F-4FD4-B2F5-2ED6952A1800}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4EC67886-5AE9-4E61-872D-F635FED488AE}" type="presOf" srcId="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" destId="{6DF22A27-481D-435B-BD0F-ED4070A696F8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1934C08C-A03F-4DCC-B598-525F5B58953D}" type="presOf" srcId="{E98759FD-393F-4768-990F-9F1C7F9DE503}" destId="{D4F2F923-2EBA-45BF-BB46-329B7DB250D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{89C0328E-2E75-44D4-BD96-4FD411F10379}" type="presOf" srcId="{58EEB467-81FF-4CAB-AC49-E112727E9E32}" destId="{242C4FD8-EB9D-469D-A238-88569ED575C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{80DCB88E-450B-4A57-B999-55BDA7F642D1}" type="presOf" srcId="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" destId="{A6166C0E-DF6D-4ABF-A986-6F99ED41BEBE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A2AB6290-A273-4B7D-978F-95780B7AA5BB}" type="presOf" srcId="{0704A606-725D-4DEB-AADB-A526C4C901B2}" destId="{ADF927DA-AD9A-44EC-AFBA-B9FD9C5A5CFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D7B3948F-AAE3-438A-B320-64E7A000B264}" type="presOf" srcId="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" destId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{17F93892-0321-4B4C-B2D4-EF0F4F69B074}" type="presOf" srcId="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" destId="{2D8576CB-CAFA-4D75-932A-2E9AC06EA48E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{83C38792-145F-42F3-A4BD-0DA077CC0719}" srcId="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" destId="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" srcOrd="2" destOrd="0" parTransId="{45516250-18FD-4B9F-B04A-4BBDF8B9CC85}" sibTransId="{4FF4F54F-BBB6-4565-B710-22BF810723AC}"/>
     <dgm:cxn modelId="{40371F95-401C-45A1-B874-004876876D75}" type="presOf" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{B9CEC48E-A07B-47B4-9569-C2919BAA288D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{38D13E97-E106-4870-99E1-391AB262EE2F}" srcId="{C7A14D1B-5FBC-4C86-AF79-DC7D4B8F98A2}" destId="{206C5FB9-82B8-4095-970A-8E9664CEB4F9}" srcOrd="1" destOrd="0" parTransId="{15270B7C-1EF3-4645-9BB8-FFB240291D2C}" sibTransId="{90EC060C-B14F-4C44-972E-81CCCE6D83E6}"/>
-    <dgm:cxn modelId="{DE484A99-F9AE-4830-924F-6955DA1C85BF}" type="presOf" srcId="{4E992FD1-D33F-4D01-AC16-49EE43C3DAAF}" destId="{DF1ABF27-316D-427A-A0B0-7C24AFE846AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{19E29297-C3B3-4D26-81A6-99B5C7D4712B}" type="presOf" srcId="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" destId="{06B24196-9BE0-40B7-837E-4CA122299E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DB2EB999-D1A7-4291-87A2-199370018678}" type="presOf" srcId="{3D106DD2-7161-408C-8CE5-774BADF391DA}" destId="{E0CB4DC8-AD93-48FB-AD5B-D5B0BFD9706C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3A0E4B9D-212F-40A4-A3B6-7D4D835F8ED1}" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" srcOrd="3" destOrd="0" parTransId="{7C5C710D-3B5A-4D7B-8616-5606FDFB0065}" sibTransId="{1C45C8F8-76AC-4CD9-9F23-510F8EA30DC2}"/>
-    <dgm:cxn modelId="{4C9BA5A2-F217-4098-9D27-73E7FDA83443}" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{0704A606-725D-4DEB-AADB-A526C4C901B2}" srcOrd="3" destOrd="0" parTransId="{B34E23CE-F197-4163-8DBB-4B168725AE78}" sibTransId="{FAE004F7-F5C7-4CFB-92FB-EE5410A9477A}"/>
+    <dgm:cxn modelId="{D2438B9F-1224-4D83-90CA-BA20ECB6F7CD}" type="presOf" srcId="{CCD12B76-EA7F-4F53-BA39-372B4F52285F}" destId="{88684612-DA9B-46C1-A69F-92A0CC8FEB09}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5923FCA1-0FF4-45CB-84F4-C8EFED5AFB99}" type="presOf" srcId="{F6D4DFE8-6AF9-4D97-A03F-4DC9087859C9}" destId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{15321EA3-3429-45E6-81DF-43C6367453BF}" type="presOf" srcId="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" destId="{66C8E0B7-413A-4657-B605-B1850669335D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B26662A3-F211-472F-AA0F-30AF32499DE8}" type="presOf" srcId="{158EFD68-8240-439F-B12A-3187DE9AF2D6}" destId="{CA292C00-ECB2-4D45-A374-410673F1F792}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{494368A3-CA95-44BB-9579-1AEE1209738D}" type="presOf" srcId="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" destId="{066DD9E2-F666-45F4-B0BA-96FCEDD23686}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8F9D4CAA-29DA-4095-8B81-122C24317020}" type="presOf" srcId="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" destId="{06B24196-9BE0-40B7-837E-4CA122299E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E0F53FA6-0854-432C-A83B-E92D6540407D}" type="presOf" srcId="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" destId="{B14B5E2B-E231-4CAD-B441-9F180C3716C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{26D402A7-B6A4-435B-B27C-5A48A12D0655}" type="presOf" srcId="{62158943-724A-42F9-9D8D-3E5AF54CFFBD}" destId="{35E5EB62-477F-4D68-BD20-3D51C9FFE339}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{302780AA-3C51-468D-94C4-81AD58D76DDE}" type="presOf" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{0FB6EF08-441A-4271-893D-0CCD8DABB6EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{130F88AA-5C7F-4529-9651-40FD9D9E0201}" type="presOf" srcId="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" destId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4ECF35AC-6ADA-41BB-A09D-46F72E941F8B}" type="presOf" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{525998F3-1030-40CB-A2B5-D5084F842181}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C84B60AC-D1EE-49D3-8EA4-78A110061C55}" type="presOf" srcId="{C7A14D1B-5FBC-4C86-AF79-DC7D4B8F98A2}" destId="{BD99528B-F7C8-40D9-A36C-2A23430AAE28}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{F0A06CAE-954A-4164-98FA-AD7D360B10AE}" type="presOf" srcId="{A4AF3D91-1A39-47E2-83AB-01DC35404D80}" destId="{50088AB4-A2F1-4D0B-8E7D-924439F69998}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6B2018B0-FA0B-4707-B8F9-9CE940F16973}" type="presOf" srcId="{BF8C9187-A2E0-4F29-AF46-A8E7B05678AF}" destId="{6DF22A27-481D-435B-BD0F-ED4070A696F8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{DD4650B1-79E4-48A8-9AD6-A0CD7084AD44}" srcId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" destId="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" srcOrd="1" destOrd="0" parTransId="{CCD12B76-EA7F-4F53-BA39-372B4F52285F}" sibTransId="{00821A45-BFA5-4EA9-9F17-D4432B96A55D}"/>
     <dgm:cxn modelId="{F4091CB4-2CD8-45B5-81EA-CD349D18E901}" type="presOf" srcId="{D2739B06-69C2-458A-9BE7-EB80DF7BAF15}" destId="{913FA38D-796D-417E-B31D-C4277E3EB522}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BFBDA9B6-68B0-47D6-8BD9-DE5D5A84B69D}" type="presOf" srcId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" destId="{9C297C65-1C08-4117-B7FD-093AA8C6D8DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{597A4BB7-11AB-488E-AFFD-1B922419242F}" type="presOf" srcId="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" destId="{5AD424F4-9F57-49FA-BF5C-7BDDC7133660}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{86D118B8-12D3-49DB-907E-8A25B58F3FC1}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" srcOrd="2" destOrd="0" parTransId="{F6D4DFE8-6AF9-4D97-A03F-4DC9087859C9}" sibTransId="{C7A8AEC8-8A72-4EE4-B810-62BA1E784809}"/>
+    <dgm:cxn modelId="{86D118B8-12D3-49DB-907E-8A25B58F3FC1}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{031DDBD6-E817-4B75-9F92-648B225CAC3F}" srcOrd="3" destOrd="0" parTransId="{F6D4DFE8-6AF9-4D97-A03F-4DC9087859C9}" sibTransId="{C7A8AEC8-8A72-4EE4-B810-62BA1E784809}"/>
     <dgm:cxn modelId="{0A4982BD-08AE-492A-BDA9-A2817C57AC30}" type="presOf" srcId="{8781E909-5F7C-4FC7-8FE9-DD8BB17BDAEB}" destId="{A9198AA0-B95A-46B9-8206-C05B78CC3201}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C5A3D8BE-FA2C-4F9B-96C1-323C5084550C}" type="presOf" srcId="{E008DEAC-C1F8-4FB3-90EF-431A01FBA815}" destId="{64CC8A95-DEC1-48BF-8D92-E760D6A506FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F95872C0-44CB-473A-A5CE-AEFAD95C3A9E}" srcId="{154CC27A-872D-4292-AE66-021583DC01E5}" destId="{B3F60AA0-458A-4695-AD71-B16130B28114}" srcOrd="0" destOrd="0" parTransId="{36C28FB6-104D-4F58-A0D4-3082DF1BD7C1}" sibTransId="{D0112950-8F59-4E63-B080-357101651AB3}"/>
+    <dgm:cxn modelId="{B85987C0-4F85-4254-BA1D-A3ACB043CE73}" type="presOf" srcId="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" destId="{4E6E8540-C076-47A5-A673-80196A8135D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{EFF136C3-6A34-4C50-84A5-2EF8C55FBE6A}" type="presOf" srcId="{B3F60AA0-458A-4695-AD71-B16130B28114}" destId="{8B0B9E6B-4609-43DC-BC4D-1B3188B2830D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{4A6BE1C4-246F-40BD-BDB7-BD4DC3869E51}" type="presOf" srcId="{010AEB20-172A-444B-A698-2AEDCE4DB033}" destId="{92307FF6-AE55-4421-9A79-A12DD6E198D4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{07A900C5-4639-41C8-A1A9-7B9EF602E651}" type="presOf" srcId="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" destId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA2CA1C9-2470-45A6-8136-8E8FFE05ABCD}" type="presOf" srcId="{CCD12B76-EA7F-4F53-BA39-372B4F52285F}" destId="{88684612-DA9B-46C1-A69F-92A0CC8FEB09}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{435DECC6-93BE-47DD-BAB4-296798F71A6D}" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" srcOrd="3" destOrd="0" parTransId="{68F1300A-E4F6-4923-BE32-597481D1B931}" sibTransId="{1748B84E-7625-417B-848B-78BF21BD2D9B}"/>
+    <dgm:cxn modelId="{BA334EC9-CFF7-4880-86C0-97946CC26ECE}" type="presOf" srcId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" destId="{3E448F96-CB1B-49C4-B8ED-BF4BC0F29765}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28FC72CA-BADD-43CB-86CD-C3F8248B808C}" type="presOf" srcId="{A09FB98C-605B-4433-9358-BF4E6DA5740F}" destId="{C6BC5807-A995-4951-BD4D-501C91E41472}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{6A2BCACB-577F-464A-800E-B496FD906904}" srcId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" destId="{3DFCEAAE-F2B1-42CE-9055-638810A0E7A5}" srcOrd="0" destOrd="0" parTransId="{62158943-724A-42F9-9D8D-3E5AF54CFFBD}" sibTransId="{9780AB9D-BB43-47ED-AC4F-439A56F63045}"/>
     <dgm:cxn modelId="{4B2691CC-AFBB-419F-A6EB-428BB783E016}" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{C7A14D1B-5FBC-4C86-AF79-DC7D4B8F98A2}" srcOrd="0" destOrd="0" parTransId="{58EEB467-81FF-4CAB-AC49-E112727E9E32}" sibTransId="{5297878A-E926-4721-995C-FD426C070CD6}"/>
+    <dgm:cxn modelId="{46E6DBCD-3F51-46A1-A43E-483CBEA028B4}" type="presOf" srcId="{342DDF2E-3BB5-4452-A11E-A094FD54183B}" destId="{909F10C2-85CF-4E9C-BA38-CDC31F80BC6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{FDB6A9CE-01DF-43D0-956F-B890520BEDBF}" type="presOf" srcId="{7849D38A-FAA5-4E1F-9AA6-779C0BBBA6D9}" destId="{21CF6A99-0C0F-4A6D-B01F-FE8774FB7FE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F394AACE-0FB7-42CB-8E3F-2F8EAC9F2983}" type="presOf" srcId="{B34E23CE-F197-4163-8DBB-4B168725AE78}" destId="{93A91305-60A2-46EA-8CD5-7FD7D110CD89}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{405C3DD1-7ADF-4268-A0A0-95CAC7E6B3C9}" type="presOf" srcId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" destId="{1AD2DF4B-9716-4244-96C8-88E8F525D58D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C3A008D3-32EA-44B2-A39B-DA3A0C9B0E5B}" type="presOf" srcId="{DB071562-A344-416B-A075-15565B399A4C}" destId="{60E4B04E-BE08-47D8-818C-5A7FC975E207}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DBE8B4D1-D312-48CF-B80E-4975B32A153F}" type="presOf" srcId="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" destId="{D0D71C9C-1FCF-4742-96A1-BABE68BB5801}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3745D7D4-6FDB-4C93-8F24-363C1A2FF58E}" type="presOf" srcId="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" destId="{680396CC-B233-45C7-B9ED-C7C227734598}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{185A3FD5-C5CA-44B8-83A1-38CE80B5871B}" type="presOf" srcId="{0927A7AB-4286-4E21-A504-5A20058B8DB6}" destId="{5B5AEF24-6FB9-4B19-8DDC-0207E14A0963}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1E3B58D7-95C7-48F4-B176-63D06C0624A1}" type="presOf" srcId="{62158943-724A-42F9-9D8D-3E5AF54CFFBD}" destId="{35E5EB62-477F-4D68-BD20-3D51C9FFE339}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{CBF1C1D8-C109-462E-B308-51FEF6538565}" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{154CC27A-872D-4292-AE66-021583DC01E5}" srcOrd="2" destOrd="0" parTransId="{F33C00E9-87C9-4DAA-B87A-31B14B13A645}" sibTransId="{E78C51D6-9CFC-4FCA-8EC1-24A3FDCAA8C4}"/>
-    <dgm:cxn modelId="{A489C7DC-DC54-450C-9F17-FB690EE1685F}" type="presOf" srcId="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" destId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{651DDFDA-0F2B-4FF1-A28D-A7D1352748AE}" type="presOf" srcId="{36C28FB6-104D-4F58-A0D4-3082DF1BD7C1}" destId="{3DAE0608-8C24-44E9-91D0-0111B9E95AFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{BCEAFFDD-8E19-40EA-8F20-D8BCB2AF782E}" type="presOf" srcId="{27093E14-D501-468A-9F51-5304F86607C3}" destId="{29784CA0-B3C2-41E3-8E62-DB6124F688A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DA63A5DF-1608-432C-9BB0-DC36DC0BCC71}" type="presOf" srcId="{F6D4DFE8-6AF9-4D97-A03F-4DC9087859C9}" destId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B8EFA9E1-990A-4631-B55A-8937BC837175}" srcId="{C3ADE592-73E9-47F9-8B22-CF2B07D1CE3A}" destId="{69855792-0DDE-4C02-BEF1-7A4549100E18}" srcOrd="0" destOrd="0" parTransId="{1F33B6BA-A411-4C8C-AF23-8DF2B1748C18}" sibTransId="{9E4E7F10-EFAB-4F08-9F75-A1F5133DC42B}"/>
-    <dgm:cxn modelId="{BCF8A7E2-C2B9-4897-A85C-3024C4FC6F9D}" type="presOf" srcId="{0DB7CE20-685C-475E-A815-6019A7BC2058}" destId="{BBC36BAB-231F-4B23-86CC-D68A24629DF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5417F5E2-97E1-45CC-A8CB-89F75071DBE5}" srcId="{010AEB20-172A-444B-A698-2AEDCE4DB033}" destId="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" srcOrd="2" destOrd="0" parTransId="{A4AF3D91-1A39-47E2-83AB-01DC35404D80}" sibTransId="{01AD7925-B8CF-4F37-885B-68899D71D935}"/>
     <dgm:cxn modelId="{5FC035E3-E3DB-4220-BA50-775AA53544C2}" type="presOf" srcId="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" destId="{6EB9C823-42F2-4D35-B886-266539ACBF07}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2D1B83E3-9FE0-426A-92FA-8470B1573F7C}" type="presOf" srcId="{E98759FD-393F-4768-990F-9F1C7F9DE503}" destId="{CA345907-1E19-4DA2-A445-A33FDE4394B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0C0252E4-EDE7-4EB6-BB40-5EFE516DC045}" srcId="{0704A606-725D-4DEB-AADB-A526C4C901B2}" destId="{0DB7CE20-685C-475E-A815-6019A7BC2058}" srcOrd="0" destOrd="0" parTransId="{71BEA269-0EA5-4859-894F-720DF6295D15}" sibTransId="{F020DA34-F683-4469-BE24-C5327EAB03FD}"/>
-    <dgm:cxn modelId="{B8A4ABE7-6B86-42B6-9228-EEA2B67D51C8}" type="presOf" srcId="{BFE1D6A5-B24B-4C1F-9D03-CC445D681E19}" destId="{66C8E0B7-413A-4657-B605-B1850669335D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{933F12E8-9DCD-46C8-9020-264EC52FE0EA}" type="presOf" srcId="{57AB9522-DD1C-4820-A3B3-40D1C7440D1B}" destId="{F511FD29-3A7D-4199-A814-131336B1F2B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{777192E5-3E75-48F4-9DE5-73097D78B1F6}" srcId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" destId="{506BC4C0-768C-43A4-9783-3B89A2F25F26}" srcOrd="0" destOrd="0" parTransId="{58762816-7F72-45B2-8049-D642B5F2BBE0}" sibTransId="{5C9CA14F-01BB-411D-9F38-1A807AAE63A7}"/>
     <dgm:cxn modelId="{AE1640E8-1A63-44F6-BFF9-C69406DD929C}" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{741ABA66-1899-41A9-BCFD-4D3A21B3116C}" srcOrd="1" destOrd="0" parTransId="{04FF8E3F-2021-41A0-BD4B-C614417A660D}" sibTransId="{768A1295-FC92-49B8-9C94-E928F2C8A8DE}"/>
     <dgm:cxn modelId="{B5037BEA-2E19-4AA6-8C6A-205029E790BB}" type="presOf" srcId="{9BFFB49B-E90F-49CD-9756-7C644A5EA5AF}" destId="{0A8DE988-D005-42A0-BE00-74EB229EA639}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7075DDEB-A5BE-4BC9-9648-AA5484C593F2}" srcId="{4C5BB857-C11D-4D26-A82D-53D5D516733E}" destId="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" srcOrd="4" destOrd="0" parTransId="{7991ACE2-9D56-4A31-AFC8-D6D1F6A1753F}" sibTransId="{67E4DAE2-5C4F-456B-BC71-5E515BBDDE42}"/>
     <dgm:cxn modelId="{CD142CEC-7551-45C1-9836-4A729E33A0EC}" type="presOf" srcId="{3381AFF7-31DF-48CF-B620-33AA7D9EDA0A}" destId="{5437D56A-7E25-43EC-9ACE-45DB0C99150C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{94390DEE-C8D3-40BE-9BD0-6BE1BA25CF5C}" srcId="{010AEB20-172A-444B-A698-2AEDCE4DB033}" destId="{F2B1406D-5AC3-452B-B52F-025C3240B64C}" srcOrd="1" destOrd="0" parTransId="{3D106DD2-7161-408C-8CE5-774BADF391DA}" sibTransId="{5D4C28BF-4708-4831-926B-AC650C9F8E44}"/>
     <dgm:cxn modelId="{21603FEF-9814-468E-9A57-01E5E5A995E9}" type="presOf" srcId="{97896E7F-A4D0-4B6A-A9FD-F52629753C74}" destId="{507F6F4A-F7CA-486A-B4F2-A03C2E357734}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{72477BEF-E723-47F4-91F2-645D25FFBBE6}" type="presOf" srcId="{9E619DA9-FAFB-497B-8AC1-07D12C6E3FF6}" destId="{3A359726-23A4-439B-A1D4-A345EE4E9BDF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BADDB4F3-6989-4448-8125-17BA9ECB01BB}" srcId="{7112597F-6E5F-48AB-AD6A-80E56C0688DC}" destId="{6114837B-A69F-4558-BA58-7EA1939E4924}" srcOrd="2" destOrd="0" parTransId="{1AF0883B-0D27-4742-AD75-084E3CF64A31}" sibTransId="{58620A1F-17B9-4E91-84F3-F896B90046ED}"/>
+    <dgm:cxn modelId="{02B6F4F5-AEDF-4AE6-84C7-6D70FBF333B1}" type="presOf" srcId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" destId="{9C297C65-1C08-4117-B7FD-093AA8C6D8DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2CD2F9F5-650D-432C-A0A9-6C5CE11EDF08}" type="presOf" srcId="{DA8F43DA-ABCF-4CC1-B0BF-6B2E0E0EA4E6}" destId="{F25FD3B0-2895-4D9C-AD08-17FC868DFF75}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{19BB4AF6-B59E-49F0-AC92-B6AAF05FECF9}" type="presOf" srcId="{8F9DAA99-D790-4BFE-8A74-15C6B80C97BC}" destId="{E8CF37C5-87DA-41EA-8E35-AEAB031BA343}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21693FF6-5EFE-491B-ACEC-8B3F5DCFA3E0}" type="presOf" srcId="{D5C109AF-7B25-401F-95B7-B74D029CC6B8}" destId="{7C5A5426-FD35-46E6-AC62-C5E2F92A87A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{589D68FA-160A-409B-8348-9104DFF80B5E}" type="presOf" srcId="{5CE27D88-9C34-4DF0-B3C6-69E6B67BABB2}" destId="{52DF689B-3B56-4889-B402-CA63414DAE49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{24F67AFA-10C6-4D6E-9A69-7D9834FC75D5}" type="presOf" srcId="{6114837B-A69F-4558-BA58-7EA1939E4924}" destId="{3A743D5E-57D1-4BB2-BFF3-378C4B917620}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{C3C8E1FB-D1C9-4479-84B7-6203036EEEB8}" type="presOf" srcId="{C3ADE592-73E9-47F9-8B22-CF2B07D1CE3A}" destId="{6A10C4DF-540A-4075-BDA6-32CA2F186C86}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{811A40FC-CCC9-4446-BCF6-0CB67B29CFD4}" type="presOf" srcId="{C534DE7F-43C4-4776-89CA-24AC754AED91}" destId="{BE8F7AF8-851D-4D86-8F4C-95FD4ECB8CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{93FF56FD-316C-451F-9CA0-080BCC61EF42}" type="presOf" srcId="{7C5C710D-3B5A-4D7B-8616-5606FDFB0065}" destId="{B8D6F4F6-4F05-4250-8950-944B2FEC0612}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{280BD1FE-2B43-454B-8EAF-FA5C56C014CA}" type="presOf" srcId="{60B3A0F6-26F3-4AB6-9BBA-E0712718D1F6}" destId="{4FDF516B-1C64-42C4-B5F5-5EF00410C9A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{39D5F9FE-A836-4034-AF40-28DA76E69864}" type="presOf" srcId="{6114837B-A69F-4558-BA58-7EA1939E4924}" destId="{6DF9FE6C-2AE3-468A-A578-5ED119A81539}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{BCBA53CD-7479-41F3-ADE7-C62890802A4A}" type="presParOf" srcId="{6A10C4DF-540A-4075-BDA6-32CA2F186C86}" destId="{B4679A04-1A95-4C7B-A5AF-8C01205B33C0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{5EC7BEFF-2875-487E-AEC7-2FDE2990F465}" type="presParOf" srcId="{B4679A04-1A95-4C7B-A5AF-8C01205B33C0}" destId="{09E2DC25-87CB-4691-BAA6-C891E966883C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{769896BB-B69A-49CE-B5CE-49B3B4512912}" type="presParOf" srcId="{09E2DC25-87CB-4691-BAA6-C891E966883C}" destId="{525998F3-1030-40CB-A2B5-D5084F842181}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -3274,92 +3649,127 @@
     <dgm:cxn modelId="{F9C268EE-307F-444C-8C1F-34FE56D523FB}" type="presParOf" srcId="{9DF4E650-DB30-4348-BC3A-D98CF6532149}" destId="{0FB6EF08-441A-4271-893D-0CCD8DABB6EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{41F1E19F-85ED-4763-AC32-1D2F4FD6DCBD}" type="presParOf" srcId="{9DF4E650-DB30-4348-BC3A-D98CF6532149}" destId="{B9CEC48E-A07B-47B4-9569-C2919BAA288D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{05F46A9B-1A30-41A9-854D-4BB766B63634}" type="presParOf" srcId="{1EA6AE46-1922-4A30-BFBA-0F760B67D3B1}" destId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DEC98F8A-4E3E-40C5-877C-1311FF857D27}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{D52FD1B1-95AC-450F-8C9D-D7031800C990}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1C1923F1-80EE-4976-8850-AC600EDC2546}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{4BB58B78-D1B0-41DB-BA55-B2097310A8C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7A6E0B44-2F8D-4F96-A14D-9CBC92521397}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{3DAE0608-8C24-44E9-91D0-0111B9E95AFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{7AACB6A8-95F9-4000-8480-5BC7A531ABCA}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{0FCE359A-FB84-4D7B-ABD8-610D1F71F286}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D4AE849E-8493-4513-ABF4-F3CDF3083076}" type="presParOf" srcId="{0FCE359A-FB84-4D7B-ABD8-610D1F71F286}" destId="{1700654A-4EBF-46CB-9EEC-5B89D3C98FBF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21D02E97-E739-4BF3-A9ED-6B4C5CEEF9FE}" type="presParOf" srcId="{1700654A-4EBF-46CB-9EEC-5B89D3C98FBF}" destId="{B1B43D1C-5079-4A22-847D-EE2E5C272A8F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{6F1DBF54-DD90-4FEB-8BC4-5613161F1318}" type="presParOf" srcId="{1700654A-4EBF-46CB-9EEC-5B89D3C98FBF}" destId="{8B0B9E6B-4609-43DC-BC4D-1B3188B2830D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C8BF6642-7D4F-4449-8085-D2F66E28EA6A}" type="presParOf" srcId="{0FCE359A-FB84-4D7B-ABD8-610D1F71F286}" destId="{89DF2895-2832-40ED-81F5-5C4BE6A0566A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9B017A43-A52F-4A91-848D-C64473941F43}" type="presParOf" srcId="{0FCE359A-FB84-4D7B-ABD8-610D1F71F286}" destId="{99C34CE4-D228-41CC-9AE2-4F136B8DB9FE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DEC98F8A-4E3E-40C5-877C-1311FF857D27}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{D52FD1B1-95AC-450F-8C9D-D7031800C990}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1C1923F1-80EE-4976-8850-AC600EDC2546}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{4BB58B78-D1B0-41DB-BA55-B2097310A8C3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{3B442C84-C7A1-40E2-836E-0C9D956FEBCE}" type="presParOf" srcId="{4BB58B78-D1B0-41DB-BA55-B2097310A8C3}" destId="{5C83D338-5EB1-4BEC-B2CA-4B6BBEC55447}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{BE5E7DA1-AF97-4A8E-9D9C-5DC9B766EB93}" type="presParOf" srcId="{5C83D338-5EB1-4BEC-B2CA-4B6BBEC55447}" destId="{21CF6A99-0C0F-4A6D-B01F-FE8774FB7FE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2F594273-AA78-43BC-897A-994E6F7369A0}" type="presParOf" srcId="{5C83D338-5EB1-4BEC-B2CA-4B6BBEC55447}" destId="{A6166C0E-DF6D-4ABF-A986-6F99ED41BEBE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D9E36FEF-1061-461B-B1E9-AB04EE9DA27E}" type="presParOf" srcId="{4BB58B78-D1B0-41DB-BA55-B2097310A8C3}" destId="{37D0F740-FE94-4A09-B773-EC72AEF6A726}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1BBAEA58-7466-44EE-9BD8-3E36DC8DBE2E}" type="presParOf" srcId="{4BB58B78-D1B0-41DB-BA55-B2097310A8C3}" destId="{0F32F222-3AE8-44AF-A98D-E2BAD0FA08D2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0C5A3D71-5D80-405D-BF59-863F54653314}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B87A6918-181C-4110-A279-B5DF8DD1CF94}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{89A83E37-EF59-4161-AF46-71262E57BE29}" type="presParOf" srcId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" destId="{6DCB8B52-821B-4C11-B870-82E018202E0E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0C258A56-3A6D-4B5C-8F04-2D7DDA412A3C}" type="presParOf" srcId="{6DCB8B52-821B-4C11-B870-82E018202E0E}" destId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D92C8124-9EC9-4C22-A57D-30F00F913DFC}" type="presParOf" srcId="{6DCB8B52-821B-4C11-B870-82E018202E0E}" destId="{F511FD29-3A7D-4199-A814-131336B1F2B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{795E08A7-08CD-4CB8-98BE-74EF429A6571}" type="presParOf" srcId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" destId="{B98A76B9-47AC-4EAE-8A2C-88886B37F67C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A730E9FB-0007-4503-8636-8461CD6B53EF}" type="presParOf" srcId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" destId="{79725D9E-A2F2-4BD8-A677-155AD56B3589}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{07621866-21A4-463C-A816-9806A87FB8E1}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C1F6A5AC-C705-4B2B-8AB8-4B3D123F8ADE}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{7597070F-9B9C-4621-8E48-3283023C23B4}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{78C17D8A-2EEF-4F54-9397-89F8B65652E6}" type="presParOf" srcId="{7597070F-9B9C-4621-8E48-3283023C23B4}" destId="{B7AF21F0-7DC4-48F4-A196-D362B3EAF44A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3F4BB166-DA36-4C82-B673-A528FBB6C6D1}" type="presParOf" srcId="{B7AF21F0-7DC4-48F4-A196-D362B3EAF44A}" destId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{892B1E18-EB30-486F-ABF5-353ED433954F}" type="presParOf" srcId="{B7AF21F0-7DC4-48F4-A196-D362B3EAF44A}" destId="{1988B68F-9DDA-43FA-BC61-C5E073B74FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8470E952-46AD-46F9-87CF-B04D240786B7}" type="presParOf" srcId="{7597070F-9B9C-4621-8E48-3283023C23B4}" destId="{3B22C8FE-46C4-46CC-A9D4-1DD497D867B9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3DE2926F-7CF6-4459-AEF5-85845F871C2B}" type="presParOf" srcId="{7597070F-9B9C-4621-8E48-3283023C23B4}" destId="{EC72B1A5-8235-4B4F-8650-A37CD63E2F79}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E0B7AF32-882A-4876-B8BA-7089E6BAE554}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BBF5550-63BC-4951-BC36-1CB8BF10706A}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2E974BE2-82E0-4AAB-83E9-5A2CE9CBD0DC}" type="presParOf" srcId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" destId="{6DCB8B52-821B-4C11-B870-82E018202E0E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3DDCEF24-A41D-4A87-BDE9-859B693E81DD}" type="presParOf" srcId="{6DCB8B52-821B-4C11-B870-82E018202E0E}" destId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{525421CD-71CE-495C-9191-F63046C96EFC}" type="presParOf" srcId="{6DCB8B52-821B-4C11-B870-82E018202E0E}" destId="{F511FD29-3A7D-4199-A814-131336B1F2B1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{927F1D39-4C47-4C92-9636-9652C7A98EF3}" type="presParOf" srcId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" destId="{B98A76B9-47AC-4EAE-8A2C-88886B37F67C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E20B022D-278A-4FBD-A462-6B7016F42EA8}" type="presParOf" srcId="{AF1ADF36-C3CF-421A-B887-2E9CF8DAFA50}" destId="{79725D9E-A2F2-4BD8-A677-155AD56B3589}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0C28D1E7-EFB0-4095-BEF7-032608F3078E}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1BC88BB4-2DB3-45C9-B63B-49E4CE879B62}" type="presParOf" srcId="{ECD8DEE1-8558-4FFF-8FC7-67665E79C7D5}" destId="{7597070F-9B9C-4621-8E48-3283023C23B4}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F2707E8D-8AD0-4205-90A8-3BA5B9B616DF}" type="presParOf" srcId="{7597070F-9B9C-4621-8E48-3283023C23B4}" destId="{B7AF21F0-7DC4-48F4-A196-D362B3EAF44A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{11A29887-EDE2-4342-A386-51748B391C8C}" type="presParOf" srcId="{B7AF21F0-7DC4-48F4-A196-D362B3EAF44A}" destId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{86A5A369-B4EB-4F79-97A8-8C2E2B8EC07A}" type="presParOf" srcId="{B7AF21F0-7DC4-48F4-A196-D362B3EAF44A}" destId="{1988B68F-9DDA-43FA-BC61-C5E073B74FF9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D85B71FB-0ACA-4F92-BEDF-7E1C4218AC5C}" type="presParOf" srcId="{7597070F-9B9C-4621-8E48-3283023C23B4}" destId="{3B22C8FE-46C4-46CC-A9D4-1DD497D867B9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{27C3020A-1A19-42AE-B3D3-1F11C25DA444}" type="presParOf" srcId="{7597070F-9B9C-4621-8E48-3283023C23B4}" destId="{EC72B1A5-8235-4B4F-8650-A37CD63E2F79}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{2BECFBD2-C972-4ED2-8C13-2A8A8379809C}" type="presParOf" srcId="{1EA6AE46-1922-4A30-BFBA-0F760B67D3B1}" destId="{D8D69AB2-806E-4E85-88D8-6EC232D71ECE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EC94013D-5179-42D2-9B1F-AB7564542D0D}" type="presParOf" srcId="{A1241865-23E3-4BB5-8BCF-E0046B51B0C3}" destId="{93A91305-60A2-46EA-8CD5-7FD7D110CD89}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{ECC7B0CB-16E1-4161-94F1-0C107ED2CE88}" type="presParOf" srcId="{A1241865-23E3-4BB5-8BCF-E0046B51B0C3}" destId="{AC31EAB5-BB58-4C22-97FD-A372676BE36D}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3D67D286-3BBB-40AB-A421-312762BE7889}" type="presParOf" srcId="{AC31EAB5-BB58-4C22-97FD-A372676BE36D}" destId="{FDA0C1C3-4594-412F-B54A-4E4B39C6DEF8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4D5D35A7-BABC-40DB-9502-BEEAC7DED729}" type="presParOf" srcId="{FDA0C1C3-4594-412F-B54A-4E4B39C6DEF8}" destId="{ADF927DA-AD9A-44EC-AFBA-B9FD9C5A5CFC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F827C2AF-655E-4109-AD10-0B9C16066AAF}" type="presParOf" srcId="{FDA0C1C3-4594-412F-B54A-4E4B39C6DEF8}" destId="{CC61456B-015B-4336-90BA-1A6DE81E5C47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D06B8B89-81A2-4AD1-AEAA-CA402ED28B93}" type="presParOf" srcId="{AC31EAB5-BB58-4C22-97FD-A372676BE36D}" destId="{1FD5A8FC-69FE-47AA-92F7-D3EFE078D240}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{98020E0F-FD08-4550-A447-F92D278B01FC}" type="presParOf" srcId="{1FD5A8FC-69FE-47AA-92F7-D3EFE078D240}" destId="{DD21CCA5-4284-4FAF-A462-BB6E99B145AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{BDF2FC8E-4C79-4C49-80A4-6742B9B70E8C}" type="presParOf" srcId="{1FD5A8FC-69FE-47AA-92F7-D3EFE078D240}" destId="{BDEFA403-E61E-42C7-AF2C-1D09FA5F14F7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6E8DF709-4217-4153-B09A-EE98F6FDD7AC}" type="presParOf" srcId="{BDEFA403-E61E-42C7-AF2C-1D09FA5F14F7}" destId="{DBFE5934-651F-4D3D-85E1-640C1A15E9E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{61C985F0-4C21-42B2-9E2C-19F8C8B6C8F5}" type="presParOf" srcId="{DBFE5934-651F-4D3D-85E1-640C1A15E9E4}" destId="{BBC36BAB-231F-4B23-86CC-D68A24629DF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{768736A4-42F2-45F2-AC36-A1C260EB474F}" type="presParOf" srcId="{DBFE5934-651F-4D3D-85E1-640C1A15E9E4}" destId="{F2D7F749-312C-44C0-A45E-FC481952FAC8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4116C6AF-D02E-44EE-AFAD-BC1937126C74}" type="presParOf" srcId="{BDEFA403-E61E-42C7-AF2C-1D09FA5F14F7}" destId="{6FAAFD5A-68F2-4FEA-92CF-3D8E4766B506}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C82C41AC-EB2E-40E2-B1E5-2E1019DEC196}" type="presParOf" srcId="{BDEFA403-E61E-42C7-AF2C-1D09FA5F14F7}" destId="{72D8D39B-D74B-4BF3-99BC-D26B8B137AC0}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{98E35BB1-E3CE-41B4-BAD5-DDB10C0B36F0}" type="presParOf" srcId="{1FD5A8FC-69FE-47AA-92F7-D3EFE078D240}" destId="{A57D0D43-C065-4AC0-BEF0-F336687429D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E49A8143-560F-4A2C-A6CC-273EDD4AF3F2}" type="presParOf" srcId="{1FD5A8FC-69FE-47AA-92F7-D3EFE078D240}" destId="{AAD113C1-77C6-4EA5-8538-FD1B5517FC32}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C0818619-380B-4629-B0D3-34CCEE668934}" type="presParOf" srcId="{AAD113C1-77C6-4EA5-8538-FD1B5517FC32}" destId="{6B8B4431-5726-4714-BD57-7C247FB76813}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{35FCE762-E988-4444-AAED-730B15C2466D}" type="presParOf" srcId="{6B8B4431-5726-4714-BD57-7C247FB76813}" destId="{60E4B04E-BE08-47D8-818C-5A7FC975E207}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{D9B5CA05-9DA3-4D79-BA1A-9A711C998E94}" type="presParOf" srcId="{6B8B4431-5726-4714-BD57-7C247FB76813}" destId="{45AC7ABD-8300-4E00-A8F0-85397E2A06BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{07000401-3FEA-4222-8F31-7CC816A787D5}" type="presParOf" srcId="{AAD113C1-77C6-4EA5-8538-FD1B5517FC32}" destId="{AD8AFFC5-D5B0-48FE-B72E-D243885E6C91}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{32D288B7-7E78-40AD-B7D5-A1BF46726484}" type="presParOf" srcId="{AAD113C1-77C6-4EA5-8538-FD1B5517FC32}" destId="{321AF302-18D9-4E3C-9957-44FC69B887A9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{38E5FCE9-24C4-4C45-923D-C05343C8AA53}" type="presParOf" srcId="{AC31EAB5-BB58-4C22-97FD-A372676BE36D}" destId="{BCE2D1CB-FDE9-43F3-BBB2-D15E210DC7AC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A95C1302-74F7-4D04-9D9E-067C53600E1E}" type="presParOf" srcId="{A1241865-23E3-4BB5-8BCF-E0046B51B0C3}" destId="{06A067C9-2A23-4E19-B4F8-934185DEA74F}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E1087085-39AF-4F68-BFB8-D39F05A790BB}" type="presParOf" srcId="{A1241865-23E3-4BB5-8BCF-E0046B51B0C3}" destId="{28316453-1646-4AEF-8FE0-3F5416C80DAF}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{21354D81-A350-4186-8D6D-5347AA54F98A}" type="presParOf" srcId="{28316453-1646-4AEF-8FE0-3F5416C80DAF}" destId="{33277512-D38C-4461-9BDD-737AAA6E4758}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FA58DCAD-2983-47BA-A740-E5422EDD921A}" type="presParOf" srcId="{33277512-D38C-4461-9BDD-737AAA6E4758}" destId="{C76C37A3-C74A-412C-85F8-3B8A23A7AFD4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2C34A42F-39C7-4119-BCAC-4866BE6D84DA}" type="presParOf" srcId="{33277512-D38C-4461-9BDD-737AAA6E4758}" destId="{3E448F96-CB1B-49C4-B8ED-BF4BC0F29765}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FDA56718-1450-4776-80DC-27F9987450EB}" type="presParOf" srcId="{28316453-1646-4AEF-8FE0-3F5416C80DAF}" destId="{21AF1E1A-E39E-4D84-B366-60478B708045}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{97D2E0F9-DB33-4426-BA38-4A393AE123E7}" type="presParOf" srcId="{21AF1E1A-E39E-4D84-B366-60478B708045}" destId="{1F096332-9D9C-4CCD-B93A-646E27709E98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB450F5A-BA2B-4776-ABED-B7A84ACCB4D7}" type="presParOf" srcId="{21AF1E1A-E39E-4D84-B366-60478B708045}" destId="{080DB030-05DD-4D0E-8BCB-E82A0DE87530}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ACDAB719-6262-4209-ABEF-8C01D4E49475}" type="presParOf" srcId="{080DB030-05DD-4D0E-8BCB-E82A0DE87530}" destId="{9E4D44E4-13C4-451F-80F0-DA535E2EB934}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8A686E9F-0C2A-4309-AFE6-72171028DB48}" type="presParOf" srcId="{9E4D44E4-13C4-451F-80F0-DA535E2EB934}" destId="{680396CC-B233-45C7-B9ED-C7C227734598}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B6CB498A-EF43-409B-8689-A14D574C4290}" type="presParOf" srcId="{9E4D44E4-13C4-451F-80F0-DA535E2EB934}" destId="{4E6E8540-C076-47A5-A673-80196A8135D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3F91922A-9999-43F0-B9EC-28F169D35080}" type="presParOf" srcId="{080DB030-05DD-4D0E-8BCB-E82A0DE87530}" destId="{FB3A66E6-C22B-486B-8BBC-2DED0A613BE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{761C1E89-D23E-4EA2-9A2A-3556097A6781}" type="presParOf" srcId="{080DB030-05DD-4D0E-8BCB-E82A0DE87530}" destId="{0221E933-EEC9-4AA2-AB67-99C410E8E677}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4AEDB285-39E1-4108-892C-D17F23542656}" type="presParOf" srcId="{21AF1E1A-E39E-4D84-B366-60478B708045}" destId="{7DE8D592-E9C1-419A-8B79-C0E03DE00E8E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8C99313B-30EB-405C-951C-0D9FFAA3EFD6}" type="presParOf" srcId="{21AF1E1A-E39E-4D84-B366-60478B708045}" destId="{18D51BDA-B001-4729-B8CB-A2C3F8BABB21}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D33F9578-DFF0-4A20-89C0-E65EC30C5994}" type="presParOf" srcId="{18D51BDA-B001-4729-B8CB-A2C3F8BABB21}" destId="{2968F568-3EF8-4E0A-B390-714529E2476B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{48BB3E35-8D25-4910-ACF1-96A58EC72D28}" type="presParOf" srcId="{2968F568-3EF8-4E0A-B390-714529E2476B}" destId="{614000A1-3325-4553-A5EE-A6418902004F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{68A7DF42-F53D-4E5D-BB3E-F2100075730F}" type="presParOf" srcId="{2968F568-3EF8-4E0A-B390-714529E2476B}" destId="{C6BC5807-A995-4951-BD4D-501C91E41472}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{10981DAB-B1CC-4E56-88A1-13421FEDBBB2}" type="presParOf" srcId="{18D51BDA-B001-4729-B8CB-A2C3F8BABB21}" destId="{59F19534-0624-43B4-96A0-68791FE0C715}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{36DF7360-BDE6-40BD-8412-343B5FF56143}" type="presParOf" srcId="{18D51BDA-B001-4729-B8CB-A2C3F8BABB21}" destId="{FDDACEB5-EBE6-45A7-8603-F0B447982B9B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{51B3D22A-04EB-4843-A327-D7D57EBCF0A8}" type="presParOf" srcId="{21AF1E1A-E39E-4D84-B366-60478B708045}" destId="{797A0EA7-5C54-491D-A6D6-144A18EE8B38}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F811B427-BDC2-4B24-B910-85B0899584B9}" type="presParOf" srcId="{21AF1E1A-E39E-4D84-B366-60478B708045}" destId="{E5ABC667-417C-4F47-A331-8890561CD0E1}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{51B046C4-81CC-4A05-BA62-E912A2550252}" type="presParOf" srcId="{E5ABC667-417C-4F47-A331-8890561CD0E1}" destId="{18A95998-2F82-49CD-AEDF-2D838AE537E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{8B1EF2E3-AE14-4208-BEFD-706C75445F21}" type="presParOf" srcId="{18A95998-2F82-49CD-AEDF-2D838AE537E9}" destId="{6DF9FE6C-2AE3-468A-A578-5ED119A81539}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AB9FB275-C959-4EBB-83CC-E61426D366F2}" type="presParOf" srcId="{18A95998-2F82-49CD-AEDF-2D838AE537E9}" destId="{3A743D5E-57D1-4BB2-BFF3-378C4B917620}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1B028972-9F0B-4457-82D5-FFCACDB1A67F}" type="presParOf" srcId="{E5ABC667-417C-4F47-A331-8890561CD0E1}" destId="{AB979BEB-587E-4C01-BEEE-91A1993B20C1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{34B5C611-0357-456E-9670-F562B0B01FA8}" type="presParOf" srcId="{E5ABC667-417C-4F47-A331-8890561CD0E1}" destId="{648C32AB-2F02-459F-AE96-92F52B961B59}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{01F33CF8-D0E3-4E8D-9EEF-FC01234633DA}" type="presParOf" srcId="{28316453-1646-4AEF-8FE0-3F5416C80DAF}" destId="{76177ACC-AA14-4297-AB73-337FB4393615}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{097CE845-97F7-45E8-AD2A-2B204F47C670}" type="presParOf" srcId="{A1241865-23E3-4BB5-8BCF-E0046B51B0C3}" destId="{3CA6BB33-226E-4B04-A300-1B218D976C9A}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75419312-88CC-45EF-9F6B-CC741959B14A}" type="presParOf" srcId="{A1241865-23E3-4BB5-8BCF-E0046B51B0C3}" destId="{D6425FB0-F171-4E67-A2B8-855F1B664B1E}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0A135274-2DE5-4F4A-AB99-913FE5E46463}" type="presParOf" srcId="{D6425FB0-F171-4E67-A2B8-855F1B664B1E}" destId="{643A0111-FF34-4EAE-B894-98FCBB0814FC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{0A063507-434A-4CAB-91D3-4B4DED35BE70}" type="presParOf" srcId="{643A0111-FF34-4EAE-B894-98FCBB0814FC}" destId="{4FEB0F4C-CE8F-4E74-935E-5E1BB523FAD5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5BE10546-AE14-4132-866D-146201E5043D}" type="presParOf" srcId="{643A0111-FF34-4EAE-B894-98FCBB0814FC}" destId="{7C5A5426-FD35-46E6-AC62-C5E2F92A87A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{54CB0694-58B9-4882-941D-E60F736DE7A9}" type="presParOf" srcId="{D6425FB0-F171-4E67-A2B8-855F1B664B1E}" destId="{CBAC4C0B-E741-48DB-B2CC-4EF39A7E752E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E41AC360-8E42-48B4-B11B-3DB2C1DD8D51}" type="presParOf" srcId="{CBAC4C0B-E741-48DB-B2CC-4EF39A7E752E}" destId="{909F10C2-85CF-4E9C-BA38-CDC31F80BC6D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4381237C-3C36-4E26-9D78-CD87F809CB1A}" type="presParOf" srcId="{CBAC4C0B-E741-48DB-B2CC-4EF39A7E752E}" destId="{11EF346F-8FD8-4321-8EA5-FD3E3E7A6426}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{60F2D330-F113-4AD1-BF2A-24C6882E88FC}" type="presParOf" srcId="{11EF346F-8FD8-4321-8EA5-FD3E3E7A6426}" destId="{C5CE2A9F-EBF4-4B20-8866-77EA42E8D91B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{CAE839D7-1490-44DE-A507-D3E8D0C90281}" type="presParOf" srcId="{C5CE2A9F-EBF4-4B20-8866-77EA42E8D91B}" destId="{F695EC9B-139B-412C-BA00-6035C73DD0A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E9211F29-6721-4F5C-908E-000618E96271}" type="presParOf" srcId="{C5CE2A9F-EBF4-4B20-8866-77EA42E8D91B}" destId="{59955954-7D9A-456B-ACAD-9F81C8A2F3DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C4FD9BCF-41B0-4F23-B795-4B0E8E997F80}" type="presParOf" srcId="{11EF346F-8FD8-4321-8EA5-FD3E3E7A6426}" destId="{1D99F2ED-46EB-45E8-9D49-A734D73ABFCA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B1A1637D-3FC9-495B-BE45-D2201015BDA1}" type="presParOf" srcId="{11EF346F-8FD8-4321-8EA5-FD3E3E7A6426}" destId="{170F3979-DAEC-4AED-A9A6-115B2E7A0C2E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3596A0A0-91CF-4EA7-93D4-341B9EEDEB09}" type="presParOf" srcId="{CBAC4C0B-E741-48DB-B2CC-4EF39A7E752E}" destId="{D15BEF85-926D-4584-AE39-92D3442E3320}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{C28802F6-9700-4323-8862-AE9E18DF0125}" type="presParOf" srcId="{CBAC4C0B-E741-48DB-B2CC-4EF39A7E752E}" destId="{2665D88A-DA1C-4FE8-AE92-549A3559CA9A}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AA21246E-2BF3-41DB-AEA2-D6B9B462A9D0}" type="presParOf" srcId="{2665D88A-DA1C-4FE8-AE92-549A3559CA9A}" destId="{A79AD40C-0EC5-458F-BE49-CBC0B387DA0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{A75C53B2-56D5-40EB-8B1B-A2551AFEB2BC}" type="presParOf" srcId="{A79AD40C-0EC5-458F-BE49-CBC0B387DA0A}" destId="{CA292C00-ECB2-4D45-A374-410673F1F792}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{97F5B970-092E-4D49-8948-3DA01E2CD2EB}" type="presParOf" srcId="{A79AD40C-0EC5-458F-BE49-CBC0B387DA0A}" destId="{2C4889E4-5658-4463-90E9-724432EDF719}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{28A66033-86C9-44C4-9639-9A73DD0A1FD1}" type="presParOf" srcId="{2665D88A-DA1C-4FE8-AE92-549A3559CA9A}" destId="{ECA5EC5B-A2BA-48F7-84D8-064ED533650D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{04C81049-B10D-47A0-802E-FE264B3141BE}" type="presParOf" srcId="{2665D88A-DA1C-4FE8-AE92-549A3559CA9A}" destId="{95702008-A8A1-4704-9F3F-5B5E7849A2A2}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FD9C62BE-FE15-4DF4-B1D2-C16AA650F2E9}" type="presParOf" srcId="{D6425FB0-F171-4E67-A2B8-855F1B664B1E}" destId="{C37EAF6C-17C9-40A4-805D-A8198D672A95}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{0CC9DCEE-82F3-4E52-A2B2-DED0E9062CD5}" type="presParOf" srcId="{2581FCCC-0390-4805-AE16-565A75B54353}" destId="{C3627701-1053-4992-90CF-63508487D199}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C4111D85-D1F1-4A58-A238-54CB884F2DA7}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{6B1475D4-95C0-40DE-8657-0FCEDF51B719}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{31B935EA-D486-4FC2-8729-93EC1D541B8F}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{733D5A87-F6E8-4BAB-9052-4746505BD35A}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FB8F0E21-1B2C-4C0B-9E9C-69D7C71A5EF7}" type="presParOf" srcId="{733D5A87-F6E8-4BAB-9052-4746505BD35A}" destId="{11E2D3CD-BEA2-467E-8101-528DE5DE1828}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{152CDE03-28BD-43DA-B812-45316FB105AF}" type="presParOf" srcId="{11E2D3CD-BEA2-467E-8101-528DE5DE1828}" destId="{E8CF37C5-87DA-41EA-8E35-AEAB031BA343}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{83ED2E0B-CD92-4DDC-8368-E6FE3718F71C}" type="presParOf" srcId="{11E2D3CD-BEA2-467E-8101-528DE5DE1828}" destId="{EEA6228C-11D9-4D7E-981F-35B326CEA299}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E7F5F8C1-D52C-4059-8AD7-EBF3CD569B75}" type="presParOf" srcId="{733D5A87-F6E8-4BAB-9052-4746505BD35A}" destId="{766E8EF6-7B17-4070-AE74-03DBCC78A356}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{1182C1E7-712A-4600-9F71-3050C9381FDC}" type="presParOf" srcId="{766E8EF6-7B17-4070-AE74-03DBCC78A356}" destId="{35E5EB62-477F-4D68-BD20-3D51C9FFE339}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CD51410D-EDB9-4CED-8D60-EC4B9B45419D}" type="presParOf" srcId="{766E8EF6-7B17-4070-AE74-03DBCC78A356}" destId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{70282E3B-C483-4074-A606-E5EEB47853AB}" type="presParOf" srcId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" destId="{B1933DB0-11BC-401C-A97A-A931346164F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{553DA5C2-7113-40E3-98CD-4EB481212EA4}" type="presParOf" srcId="{B1933DB0-11BC-401C-A97A-A931346164F1}" destId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FB606651-92E1-4484-A1B9-A4A1D8FC6272}" type="presParOf" srcId="{B1933DB0-11BC-401C-A97A-A931346164F1}" destId="{B14B5E2B-E231-4CAD-B441-9F180C3716C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C3E27BB5-65F3-4AAA-874F-7CA5B10FD649}" type="presParOf" srcId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" destId="{C8B74F36-3E73-4F7B-BED8-599B863EADBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4322D15D-2C47-4431-B457-471B4C56D6C2}" type="presParOf" srcId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" destId="{79946D5E-91CA-410A-AECB-8BEB0ED592A5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{305585A4-3E97-4398-8C31-90760DA40995}" type="presParOf" srcId="{766E8EF6-7B17-4070-AE74-03DBCC78A356}" destId="{88684612-DA9B-46C1-A69F-92A0CC8FEB09}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{99B9B70D-8585-41A8-9A82-7C7CEB170B6C}" type="presParOf" srcId="{766E8EF6-7B17-4070-AE74-03DBCC78A356}" destId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{F5DDC13B-BE05-472B-8FA4-1EA49699EA5E}" type="presParOf" srcId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" destId="{B7E4ACE0-D450-4212-9DCB-F0E92D94A81E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{795B7BEF-825F-42D9-A373-08BAA39B6DE4}" type="presParOf" srcId="{B7E4ACE0-D450-4212-9DCB-F0E92D94A81E}" destId="{66C8E0B7-413A-4657-B605-B1850669335D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{805E8CC3-5378-42B4-BE1F-CEF12FE11FA6}" type="presParOf" srcId="{B7E4ACE0-D450-4212-9DCB-F0E92D94A81E}" destId="{D0D71C9C-1FCF-4742-96A1-BABE68BB5801}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{43B67D14-4176-40C8-8368-059E98192DAA}" type="presParOf" srcId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" destId="{E58D569F-4A1D-4011-9EF0-6493D9BABC98}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{A816556F-79D4-47C2-AB07-DC00625E244E}" type="presParOf" srcId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" destId="{7AF9CEDC-AF56-45B4-874D-E8AED3421CB4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{881E18EA-5908-4398-B62A-1F8ED9E7EE08}" type="presParOf" srcId="{733D5A87-F6E8-4BAB-9052-4746505BD35A}" destId="{B93B631E-0AC5-47F8-8D34-2F80A14401D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{CBC248C6-34B2-4889-8025-5071DEC4CE99}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{DF1ABF27-316D-427A-A0B0-7C24AFE846AA}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DBB23DCE-05E5-4B8C-B87B-3F8E35E95630}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{21CC24D7-606B-4BC6-89BA-6D8C07C2B261}" type="presParOf" srcId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" destId="{786F0ECF-BFB4-4239-A031-10B8A74CC68A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{2E02D75A-39D8-41C1-BE7B-54AA851E1093}" type="presParOf" srcId="{786F0ECF-BFB4-4239-A031-10B8A74CC68A}" destId="{BE8F7AF8-851D-4D86-8F4C-95FD4ECB8CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0789B96C-35B4-4896-B29B-AB01F3CA9540}" type="presParOf" srcId="{786F0ECF-BFB4-4239-A031-10B8A74CC68A}" destId="{9C297C65-1C08-4117-B7FD-093AA8C6D8DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FA4F13E6-6139-44B2-92F9-C3DD0434436F}" type="presParOf" srcId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" destId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{0909C132-2BFB-418D-947E-D75EB64D2442}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{20041C7C-A825-43E8-9B0B-5E951E44ED11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{4F4AA98D-E7CF-48DF-9F8C-45CF1B170193}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{3B5D8A37-2498-4378-B7FD-E1806BFE3775}" type="presParOf" srcId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" destId="{E50B8F39-6B89-4302-9BAA-C6D82C944167}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{384901B5-3986-4EF6-A3F5-193987806139}" type="presParOf" srcId="{E50B8F39-6B89-4302-9BAA-C6D82C944167}" destId="{06B24196-9BE0-40B7-837E-4CA122299E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{B06B4C0F-4D71-4E7F-8901-564E76DFBD5B}" type="presParOf" srcId="{E50B8F39-6B89-4302-9BAA-C6D82C944167}" destId="{3A359726-23A4-439B-A1D4-A345EE4E9BDF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{8C514628-FC62-4142-93D7-E7BFE76A8F90}" type="presParOf" srcId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" destId="{A1457FA6-91D3-4072-9E21-5181A2A95AD6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{FC40CBF1-74CA-49DA-BEFB-620F887032F6}" type="presParOf" srcId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" destId="{F711979D-733A-4414-B203-0BF1556213AD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{E30BD7C2-1059-434F-8D15-33FE4C259BD5}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{1A4B1958-277E-4537-806C-DA68D20A9833}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EC8F2168-28AB-4F5B-AE68-5B06191544CA}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{5FB788D6-9C83-4C2A-AF6A-CD779BFD405E}" type="presParOf" srcId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" destId="{9DF0ABBF-B2A5-4A99-A877-63362EDC4EA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{DBDB19EC-2748-4E4D-907F-F810386FC5C9}" type="presParOf" srcId="{9DF0ABBF-B2A5-4A99-A877-63362EDC4EA1}" destId="{DB044D53-EFD4-4DED-A266-579012D33CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{72EF2497-13F4-4410-B430-883FA3162A0F}" type="presParOf" srcId="{9DF0ABBF-B2A5-4A99-A877-63362EDC4EA1}" destId="{6DF22A27-481D-435B-BD0F-ED4070A696F8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{C515C736-B5F6-42C7-811E-7DF39B34B5DA}" type="presParOf" srcId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" destId="{F66A1AEB-37CB-4133-BD45-DFF0451FFBC9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{6F8B6295-3FB4-4E0B-94AE-1A472671D231}" type="presParOf" srcId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" destId="{EEFC1D9E-6F7B-43F4-9C0D-A965E83BA0F8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{9C0DF545-5A49-4192-B9FE-7AFFBDA56164}" type="presParOf" srcId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" destId="{B8E2B625-C178-45D8-BA01-3F2B19F84CD9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{32D81AF1-B201-48F7-964A-08F7CCB969D9}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{B8D6F4F6-4F05-4250-8950-944B2FEC0612}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{99B5B2F4-2C48-42E4-B4B3-791EE28BAB6E}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{DDFB9A72-EFF1-4DFC-8838-8B36B26D5D29}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E4D25995-5CA4-40C8-BB64-9B5703736C2C}" type="presParOf" srcId="{DDFB9A72-EFF1-4DFC-8838-8B36B26D5D29}" destId="{20384ACF-1AF9-4815-B118-DE065A41CE2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{422D2D4B-57E4-4171-8C53-FBB6363290B2}" type="presParOf" srcId="{20384ACF-1AF9-4815-B118-DE065A41CE2A}" destId="{1AB0C6A8-E043-40F2-A702-CC140619702E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{10652D05-3031-440F-9914-94D22388410D}" type="presParOf" srcId="{20384ACF-1AF9-4815-B118-DE065A41CE2A}" destId="{29367A21-97DC-4867-B657-A9F2A6E8DC0A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{D07E4BC0-3A5C-483A-88E8-CD88107FA19D}" type="presParOf" srcId="{DDFB9A72-EFF1-4DFC-8838-8B36B26D5D29}" destId="{D7B28321-1137-4E16-AFFA-2E8F8C9823BE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7BC82A4-575F-4509-B872-76DAF964D86D}" type="presParOf" srcId="{D7B28321-1137-4E16-AFFA-2E8F8C9823BE}" destId="{35E5EB62-477F-4D68-BD20-3D51C9FFE339}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2F843B1A-F6A5-4E15-B989-6F71F5134073}" type="presParOf" srcId="{D7B28321-1137-4E16-AFFA-2E8F8C9823BE}" destId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{315E19FD-EE6D-4624-AE66-5F403AB9AF44}" type="presParOf" srcId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" destId="{B1933DB0-11BC-401C-A97A-A931346164F1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{402FF975-2A96-4C81-841A-659E8AB78A22}" type="presParOf" srcId="{B1933DB0-11BC-401C-A97A-A931346164F1}" destId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4238E723-81A3-4ED0-A1C5-CA90D5A7C48F}" type="presParOf" srcId="{B1933DB0-11BC-401C-A97A-A931346164F1}" destId="{B14B5E2B-E231-4CAD-B441-9F180C3716C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{E971C20E-B1FD-41A5-BB8B-C8FAFCDC4267}" type="presParOf" srcId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" destId="{C8B74F36-3E73-4F7B-BED8-599B863EADBA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DF25B5E2-BE57-47D7-AF3C-C4A1304133BF}" type="presParOf" srcId="{9AE844D9-9A1D-4BE1-B390-6A9B9D045D06}" destId="{79946D5E-91CA-410A-AECB-8BEB0ED592A5}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9E667032-2B35-4A4E-8FEC-0D81FE44F57F}" type="presParOf" srcId="{D7B28321-1137-4E16-AFFA-2E8F8C9823BE}" destId="{88684612-DA9B-46C1-A69F-92A0CC8FEB09}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ADE3316B-F4F0-46DF-B3F7-E81A8F4F145D}" type="presParOf" srcId="{D7B28321-1137-4E16-AFFA-2E8F8C9823BE}" destId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{75D6BD28-AAA6-49D5-9BA1-8571A8B859D9}" type="presParOf" srcId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" destId="{B7E4ACE0-D450-4212-9DCB-F0E92D94A81E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{5DB85D55-4032-466B-BEA5-8A3AF7F9F9A6}" type="presParOf" srcId="{B7E4ACE0-D450-4212-9DCB-F0E92D94A81E}" destId="{66C8E0B7-413A-4657-B605-B1850669335D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{FB47FAED-DB41-42DF-BED3-BFF49E321B26}" type="presParOf" srcId="{B7E4ACE0-D450-4212-9DCB-F0E92D94A81E}" destId="{D0D71C9C-1FCF-4742-96A1-BABE68BB5801}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AC066804-56A6-4B8E-892C-AD749284D094}" type="presParOf" srcId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" destId="{E58D569F-4A1D-4011-9EF0-6493D9BABC98}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{2823048F-AF95-40D5-A933-D6A8FF884915}" type="presParOf" srcId="{BAEFC4EE-0FFD-447C-9033-2B19D3375449}" destId="{7AF9CEDC-AF56-45B4-874D-E8AED3421CB4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3F26CC9A-4325-4227-83F0-37E35B792E48}" type="presParOf" srcId="{DDFB9A72-EFF1-4DFC-8838-8B36B26D5D29}" destId="{37A9E18C-243E-4E60-86DA-571B44F4AA94}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{F7355DF0-2D6B-48EF-8842-9E3B310111BF}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{DF1ABF27-316D-427A-A0B0-7C24AFE846AA}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{4012ED6D-376D-40E6-BE27-446E5A69C25B}" type="presParOf" srcId="{32C7529C-30EF-4DE6-84D8-30A656FB957B}" destId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3CB44499-4112-4A6F-A55A-DCCD29AD61C8}" type="presParOf" srcId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" destId="{786F0ECF-BFB4-4239-A031-10B8A74CC68A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{594B8EE1-C620-4185-9CD3-352DE20B50F9}" type="presParOf" srcId="{786F0ECF-BFB4-4239-A031-10B8A74CC68A}" destId="{BE8F7AF8-851D-4D86-8F4C-95FD4ECB8CCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{388D1A4D-8675-46A5-BC79-5C2948F7744B}" type="presParOf" srcId="{786F0ECF-BFB4-4239-A031-10B8A74CC68A}" destId="{9C297C65-1C08-4117-B7FD-093AA8C6D8DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{44D87DF0-D61A-4055-ADEF-5A7165A703D9}" type="presParOf" srcId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" destId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{26F54529-589F-43EF-85EA-C94F3AE31738}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{20041C7C-A825-43E8-9B0B-5E951E44ED11}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DE007670-7CEF-4E20-A022-07340B512F29}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{80CCAA9B-BB6C-4AB7-A0B2-BCD182C02592}" type="presParOf" srcId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" destId="{E50B8F39-6B89-4302-9BAA-C6D82C944167}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1D60BFD0-02ED-4D94-BFB7-33F7C983B248}" type="presParOf" srcId="{E50B8F39-6B89-4302-9BAA-C6D82C944167}" destId="{06B24196-9BE0-40B7-837E-4CA122299E99}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{BDB1EDB4-EE7D-49FC-8916-C4E941980970}" type="presParOf" srcId="{E50B8F39-6B89-4302-9BAA-C6D82C944167}" destId="{3A359726-23A4-439B-A1D4-A345EE4E9BDF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{1260DDE6-9BC0-4070-B998-50F7E5162E17}" type="presParOf" srcId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" destId="{A1457FA6-91D3-4072-9E21-5181A2A95AD6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{944BC7EE-9F39-4B33-8BEA-AE49251B4B5C}" type="presParOf" srcId="{002D0620-6A17-4D1E-9CF4-5291B0976BB6}" destId="{F711979D-733A-4414-B203-0BF1556213AD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{B04A131D-1ECA-43DF-948F-B007AEBD9529}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{1A4B1958-277E-4537-806C-DA68D20A9833}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{DB2665CE-AA71-4693-9950-2A88F55C75B5}" type="presParOf" srcId="{4B0DB0B6-5055-46B6-B56A-23023E66AA1D}" destId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{AA335F43-D25A-45E3-A74E-FD9ACFFF94A9}" type="presParOf" srcId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" destId="{9DF0ABBF-B2A5-4A99-A877-63362EDC4EA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{3D450305-950F-47C4-9C3B-5FE95946D025}" type="presParOf" srcId="{9DF0ABBF-B2A5-4A99-A877-63362EDC4EA1}" destId="{DB044D53-EFD4-4DED-A266-579012D33CD6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{622A1D22-7006-4A97-BF87-3FDC0FC18F4E}" type="presParOf" srcId="{9DF0ABBF-B2A5-4A99-A877-63362EDC4EA1}" destId="{6DF22A27-481D-435B-BD0F-ED4070A696F8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9B1FAC25-B0D7-41A5-A677-835DDB62D998}" type="presParOf" srcId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" destId="{F66A1AEB-37CB-4133-BD45-DFF0451FFBC9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{ABCFD466-65DF-4085-B9A6-680203E40372}" type="presParOf" srcId="{9E8B35AF-2F5E-455E-BB6B-5122AABB1DFD}" destId="{EEFC1D9E-6F7B-43F4-9C0D-A965E83BA0F8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
+    <dgm:cxn modelId="{9A2BF0F9-6781-47F2-83A2-CD97BCE8AE93}" type="presParOf" srcId="{7E050051-6722-4020-A8C0-C5CBFC7C0677}" destId="{B8E2B625-C178-45D8-BA01-3F2B19F84CD9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{E325812A-4EB2-4A3B-B725-9CDEF057C18E}" type="presParOf" srcId="{B4679A04-1A95-4C7B-A5AF-8C01205B33C0}" destId="{3734CCDF-AC54-4F5D-BE1F-70A0D0264D2E}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
   </dgm:cxnLst>
   <dgm:bg/>
@@ -3387,8 +3797,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9241652" y="2229524"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="10297245" y="2050877"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3402,10 +3812,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3446,8 +3856,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9241652" y="2229524"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="10297245" y="2050877"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3461,10 +3871,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="472171"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3505,8 +3915,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5093524" y="1485793"/>
-          <a:ext cx="4567131" cy="219976"/>
+          <a:off x="5611458" y="1322091"/>
+          <a:ext cx="5096371" cy="215556"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3520,13 +3930,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4567131" y="109988"/>
+                <a:pt x="5096371" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="4567131" y="219976"/>
+                <a:pt x="5096371" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3567,8 +3977,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7974169" y="2229524"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="9055229" y="2050877"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3582,10 +3992,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3626,8 +4036,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7974169" y="2229524"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="9055229" y="2050877"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3641,10 +4051,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="472171"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3678,15 +4088,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{6B1475D4-95C0-40DE-8657-0FCEDF51B719}">
+    <dsp:sp modelId="{B8D6F4F6-4F05-4250-8950-944B2FEC0612}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5093524" y="1485793"/>
-          <a:ext cx="3299647" cy="219976"/>
+          <a:off x="5611458" y="1322091"/>
+          <a:ext cx="3854355" cy="215556"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3700,13 +4110,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3299647" y="109988"/>
+                <a:pt x="3854355" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="3299647" y="219976"/>
+                <a:pt x="3854355" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3740,15 +4150,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{A57D0D43-C065-4AC0-BEF0-F336687429D4}">
+    <dsp:sp modelId="{D15BEF85-926D-4584-AE39-92D3442E3320}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6706685" y="2973254"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="7813213" y="2779663"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3762,10 +4172,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3799,15 +4209,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{DD21CCA5-4284-4FAF-A462-BB6E99B145AC}">
+    <dsp:sp modelId="{909F10C2-85CF-4E9C-BA38-CDC31F80BC6D}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6706685" y="2973254"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="7813213" y="2779663"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3821,10 +4231,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="472171"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3858,15 +4268,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{93A91305-60A2-46EA-8CD5-7FD7D110CD89}">
+    <dsp:sp modelId="{3CA6BB33-226E-4B04-A300-1B218D976C9A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5224462" y="2229524"/>
-          <a:ext cx="1901225" cy="219976"/>
+          <a:off x="5739765" y="2050877"/>
+          <a:ext cx="2484032" cy="215556"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3880,13 +4290,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1901225" y="109988"/>
+                <a:pt x="2484032" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1901225" y="219976"/>
+                <a:pt x="2484032" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3920,15 +4330,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}">
+    <dsp:sp modelId="{797A0EA7-5C54-491D-A6D6-144A18EE8B38}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5439201" y="2973254"/>
-          <a:ext cx="157126" cy="1969313"/>
+          <a:off x="6571197" y="2770138"/>
+          <a:ext cx="153968" cy="1939269"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3942,10 +4352,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1969313"/>
+                <a:pt x="0" y="1939269"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1969313"/>
+                <a:pt x="153968" y="1939269"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3979,15 +4389,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}">
+    <dsp:sp modelId="{7DE8D592-E9C1-419A-8B79-C0E03DE00E8E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5439201" y="2973254"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="6571197" y="2770138"/>
+          <a:ext cx="153968" cy="1210483"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4001,10 +4411,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1210483"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1210483"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4038,15 +4448,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{D52FD1B1-95AC-450F-8C9D-D7031800C990}">
+    <dsp:sp modelId="{1F096332-9D9C-4CCD-B93A-646E27709E98}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5439201" y="2973254"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="6571197" y="2770138"/>
+          <a:ext cx="153968" cy="481696"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4060,10 +4470,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="481696"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="481696"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4097,15 +4507,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{E9FB2B47-10B8-4C60-BB00-45897C5C4B8C}">
+    <dsp:sp modelId="{06A067C9-2A23-4E19-B4F8-934185DEA74F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5224462" y="2229524"/>
-          <a:ext cx="633741" cy="219976"/>
+          <a:off x="5739765" y="2050877"/>
+          <a:ext cx="1242016" cy="206030"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4119,13 +4529,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="98252"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="633741" y="109988"/>
+                <a:pt x="1242016" y="98252"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="633741" y="219976"/>
+                <a:pt x="1242016" y="206030"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4159,15 +4569,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{D7AD3CD4-FA0F-4FD4-B2F5-2ED6952A1800}">
+    <dsp:sp modelId="{E4B6EE5F-1283-4606-B6EF-550A88D57440}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4171717" y="2973254"/>
-          <a:ext cx="157126" cy="1969313"/>
+          <a:off x="5329181" y="2779663"/>
+          <a:ext cx="153968" cy="2658530"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4181,10 +4591,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1969313"/>
+                <a:pt x="0" y="2658530"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1969313"/>
+                <a:pt x="153968" y="2658530"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4218,15 +4628,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{DCD7312B-2312-4AAE-A452-C72076DB08CE}">
+    <dsp:sp modelId="{9FECF633-FEA6-499A-ACDE-636B859B2ADB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4171717" y="2973254"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="5329181" y="2779663"/>
+          <a:ext cx="153968" cy="1929743"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4240,10 +4650,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1929743"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1929743"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4277,15 +4687,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{64CC8A95-DEC1-48BF-8D92-E760D6A506FB}">
+    <dsp:sp modelId="{D52FD1B1-95AC-450F-8C9D-D7031800C990}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4171717" y="2973254"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="5329181" y="2779663"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4299,10 +4709,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4336,15 +4746,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{895954F6-2A42-4319-8C8D-C75F5562EE3B}">
+    <dsp:sp modelId="{3DAE0608-8C24-44E9-91D0-0111B9E95AFA}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4590720" y="2229524"/>
-          <a:ext cx="633741" cy="219976"/>
+          <a:off x="5329181" y="2779663"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4355,16 +4765,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="633741" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="633741" y="109988"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="219976"/>
+                <a:pt x="153968" y="472171"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4398,15 +4805,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{60197C03-CCB1-462D-9D65-0EA45CDB37EC}">
+    <dsp:sp modelId="{E9FB2B47-10B8-4C60-BB00-45897C5C4B8C}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2904233" y="2973254"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="5694045" y="2050877"/>
+          <a:ext cx="91440" cy="215556"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4417,13 +4824,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="0"/>
+                <a:pt x="45720" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="45720" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4457,15 +4861,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{8BDD2352-009F-4F3B-B6FB-371F8CB8D066}">
+    <dsp:sp modelId="{D7AD3CD4-FA0F-4FD4-B2F5-2ED6952A1800}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2904233" y="2973254"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="4087165" y="2779663"/>
+          <a:ext cx="153968" cy="1929743"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4479,10 +4883,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="1929743"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="1929743"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4516,15 +4920,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{2B1BA499-4738-4F7D-9D9E-3476D4DB46A8}">
+    <dsp:sp modelId="{DCD7312B-2312-4AAE-A452-C72076DB08CE}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3323236" y="2229524"/>
-          <a:ext cx="1901225" cy="219976"/>
+          <a:off x="4087165" y="2779663"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4535,16 +4939,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1901225" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1901225" y="109988"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="219976"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4578,15 +4979,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{A9198AA0-B95A-46B9-8206-C05B78CC3201}">
+    <dsp:sp modelId="{64CC8A95-DEC1-48BF-8D92-E760D6A506FB}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5093524" y="1485793"/>
-          <a:ext cx="130938" cy="219976"/>
+          <a:off x="4087165" y="2779663"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4600,13 +5001,314 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130938" y="109988"/>
+                <a:pt x="153968" y="472171"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{895954F6-2A42-4319-8C8D-C75F5562EE3B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4497749" y="2050877"/>
+          <a:ext cx="1242016" cy="215556"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="1242016" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1242016" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="130938" y="219976"/>
+                <a:pt x="0" y="107778"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="215556"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{60197C03-CCB1-462D-9D65-0EA45CDB37EC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2845149" y="2779663"/>
+          <a:ext cx="153968" cy="1200957"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1200957"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="153968" y="1200957"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8BDD2352-009F-4F3B-B6FB-371F8CB8D066}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2845149" y="2779663"/>
+          <a:ext cx="153968" cy="472171"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="472171"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="153968" y="472171"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{2B1BA499-4738-4F7D-9D9E-3476D4DB46A8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3255733" y="2050877"/>
+          <a:ext cx="2484032" cy="215556"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="2484032" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="2484032" y="107778"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="107778"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="215556"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A9198AA0-B95A-46B9-8206-C05B78CC3201}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5611458" y="1322091"/>
+          <a:ext cx="128307" cy="215556"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="107778"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="128307" y="107778"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="128307" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4647,8 +5349,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1374873" y="2229524"/>
-          <a:ext cx="157126" cy="1969313"/>
+          <a:off x="1346518" y="2050877"/>
+          <a:ext cx="153968" cy="1929743"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4662,10 +5364,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1969313"/>
+                <a:pt x="0" y="1929743"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1969313"/>
+                <a:pt x="153968" y="1929743"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4706,8 +5408,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1374873" y="2229524"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="1346518" y="2050877"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4721,10 +5423,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4765,8 +5467,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1374873" y="2229524"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="1346518" y="2050877"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4780,10 +5482,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="472171"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4824,8 +5526,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1793876" y="1485793"/>
-          <a:ext cx="3299647" cy="219976"/>
+          <a:off x="1757102" y="1322091"/>
+          <a:ext cx="3854355" cy="215556"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4836,16 +5538,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="3299647" y="0"/>
+                <a:pt x="3854355" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="3299647" y="109988"/>
+                <a:pt x="3854355" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="219976"/>
+                <a:pt x="0" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4886,8 +5588,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="107389" y="2229524"/>
-          <a:ext cx="157126" cy="1969313"/>
+          <a:off x="104502" y="2050877"/>
+          <a:ext cx="153968" cy="1929743"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4901,10 +5603,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1969313"/>
+                <a:pt x="0" y="1929743"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1969313"/>
+                <a:pt x="153968" y="1929743"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4945,8 +5647,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="107389" y="2229524"/>
-          <a:ext cx="157126" cy="1225583"/>
+          <a:off x="104502" y="2050877"/>
+          <a:ext cx="153968" cy="1200957"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4960,10 +5662,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="1225583"/>
+                <a:pt x="0" y="1200957"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="1225583"/>
+                <a:pt x="153968" y="1200957"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5004,8 +5706,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="107389" y="2229524"/>
-          <a:ext cx="157126" cy="481853"/>
+          <a:off x="104502" y="2050877"/>
+          <a:ext cx="153968" cy="472171"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5019,10 +5721,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="481853"/>
+                <a:pt x="0" y="472171"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="157126" y="481853"/>
+                <a:pt x="153968" y="472171"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5063,8 +5765,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="526392" y="1485793"/>
-          <a:ext cx="4567131" cy="219976"/>
+          <a:off x="515086" y="1322091"/>
+          <a:ext cx="5096371" cy="215556"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5075,16 +5777,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="4567131" y="0"/>
+                <a:pt x="5096371" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="4567131" y="109988"/>
+                <a:pt x="5096371" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="109988"/>
+                <a:pt x="0" y="107778"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="219976"/>
+                <a:pt x="0" y="215556"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -5125,8 +5827,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4569770" y="962040"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5098228" y="808861"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5193,8 +5895,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4569770" y="962040"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5098228" y="808861"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BD99528B-F7C8-40D9-A36C-2A23430AAE28}">
@@ -5204,8 +5906,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2638" y="1705770"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="1856" y="1537647"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5271,8 +5973,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2638" y="1705770"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="1856" y="1537647"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{000B74B3-10BE-4E03-8A63-DD3088511EC3}">
@@ -5282,8 +5984,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="264515" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="258471" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5349,8 +6051,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="264515" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="258471" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D02BF1AA-2210-428F-A250-CF9530125968}">
@@ -5360,8 +6062,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="264515" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="258471" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5427,8 +6129,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="264515" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="258471" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4FDF516B-1C64-42C4-B5F5-5EF00410C9A5}">
@@ -5438,8 +6140,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="264515" y="3936960"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="258471" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5505,8 +6207,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="264515" y="3936960"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="258471" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{390854E5-0328-4DE7-B2C7-500352353C74}">
@@ -5516,8 +6218,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1270122" y="1705770"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="1243872" y="1537647"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5583,8 +6285,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1270122" y="1705770"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="1243872" y="1537647"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{913FA38D-796D-417E-B31D-C4277E3EB522}">
@@ -5594,8 +6296,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1531999" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="1500487" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5661,8 +6363,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1531999" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="1500487" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{066DD9E2-F666-45F4-B0BA-96FCEDD23686}">
@@ -5672,8 +6374,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1531999" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="1500487" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5739,8 +6441,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1531999" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="1500487" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F25FD3B0-2895-4D9C-AD08-17FC868DFF75}">
@@ -5750,8 +6452,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1531999" y="3936960"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="1500487" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5817,8 +6519,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1531999" y="3936960"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="1500487" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{08CB9636-4554-44F4-8235-6F593A6F4818}">
@@ -5828,8 +6530,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4700708" y="1705770"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5226535" y="1537647"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5895,8 +6597,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4700708" y="1705770"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5226535" y="1537647"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{52DF689B-3B56-4889-B402-CA63414DAE49}">
@@ -5906,8 +6608,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2799483" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="2742503" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5968,14 +6670,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>1.1 Problem Background</a:t>
+            <a:t>3.1 Problem Background</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2799483" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="2742503" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5B5AEF24-6FB9-4B19-8DDC-0207E14A0963}">
@@ -5985,8 +6687,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3061359" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="2999118" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6047,14 +6749,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>1.2 System capabilities/overview</a:t>
+            <a:t>3.1.1 System capabilities/overview</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3061359" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="2999118" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C1D64DAF-F350-42E5-9870-63D105F0512F}">
@@ -6064,8 +6766,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3061359" y="3936960"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="2999118" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6126,14 +6828,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>1.3 Benefit Analysis</a:t>
+            <a:t>3.1.2 Benefit Analysis</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3061359" y="3936960"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="2999118" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6EB9C823-42F2-4D35-B886-266539ACBF07}">
@@ -6143,8 +6845,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4066966" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="3984519" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6205,14 +6907,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>2.1 User Requirements</a:t>
+            <a:t>3.2 User Requirements</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4066966" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="3984519" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CA345907-1E19-4DA2-A445-A33FDE4394B0}">
@@ -6222,8 +6924,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4328843" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="4241134" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6284,14 +6986,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>2.2 Software Requirements</a:t>
+            <a:t>3.2.1 Software Requirements</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4328843" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="4241134" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C35FFB2F-083B-4C9F-B1F5-8C1DD4EBBA89}">
@@ -6301,8 +7003,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4328843" y="3936960"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="4241134" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6363,14 +7065,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>2.3 Use Case Diagram</a:t>
+            <a:t>3.2.2 Use Case Diagram</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4328843" y="3936960"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="4241134" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{507F6F4A-F7CA-486A-B4F2-A03C2E357734}">
@@ -6380,8 +7082,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4328843" y="4680691"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="4241134" y="4452792"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6442,14 +7144,14 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>2.4 Use Cases</a:t>
+            <a:t>3.2.3 Use Cases</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4328843" y="4680691"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="4241134" y="4452792"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0FB6EF08-441A-4271-893D-0CCD8DABB6EE}">
@@ -6459,8 +7161,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5334450" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5226535" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6521,25 +7223,25 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>3.1 Software Design</a:t>
+            <a:t>3.3 Structural Design</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5334450" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5226535" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{21CF6A99-0C0F-4A6D-B01F-FE8774FB7FE5}">
+    <dsp:sp modelId="{B1B43D1C-5079-4A22-847D-EE2E5C272A8F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5596327" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5483150" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6599,26 +7301,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>3.2.1 Functions</a:t>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>3.3.1 Software Development</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5596327" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5483150" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}">
+    <dsp:sp modelId="{21CF6A99-0C0F-4A6D-B01F-FE8774FB7FE5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5596327" y="3936960"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5483150" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6679,25 +7380,25 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>3.2.2 Data Structures / Data Sources</a:t>
+            <a:t>3.3.2 Frontend Development</a:t>
           </a:r>
           <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5596327" y="3936960"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5483150" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}">
+    <dsp:sp modelId="{ECF63F2E-6A63-4EDC-8433-9518772CC072}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5596327" y="4680691"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5483150" y="4452792"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6757,26 +7458,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>3.2.3 Detailed Design</a:t>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>3.3.3 Backend Development </a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5596327" y="4680691"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5483150" y="4452792"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{ADF927DA-AD9A-44EC-AFBA-B9FD9C5A5CFC}">
+    <dsp:sp modelId="{3022E457-4C12-40AA-8570-8BD6DA42D7B6}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6601934" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="5483150" y="5181578"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6836,26 +7536,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>4.1 Structural Design</a:t>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>3.3.4 Data Managment</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6601934" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="5483150" y="5181578"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{BBC36BAB-231F-4B23-86CC-D68A24629DF5}">
+    <dsp:sp modelId="{C76C37A3-C74A-412C-85F8-3B8A23A7AFD4}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6863811" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="6468551" y="2256908"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6915,26 +7614,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>4.2 Visual Design</a:t>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>3.4 Documentation</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6863811" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="6468551" y="2256908"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{60E4B04E-BE08-47D8-818C-5A7FC975E207}">
+    <dsp:sp modelId="{680396CC-B233-45C7-B9ED-C7C227734598}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="6863811" y="3936960"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="6725166" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6994,26 +7692,25 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-AU" sz="900" b="0" i="0" kern="1200"/>
-            <a:t>Git_log.txt</a:t>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>3.4.1 API Documentation</a:t>
           </a:r>
-          <a:endParaRPr lang="en-AU" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="6863811" y="3936960"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="6725166" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E8CF37C5-87DA-41EA-8E35-AEAB031BA343}">
+    <dsp:sp modelId="{614000A1-3325-4553-A5EE-A6418902004F}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7869418" y="1705770"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="6725166" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7074,24 +7771,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" kern="1200"/>
-            <a:t>4 - Controling</a:t>
+            <a:t>3.4.2 User Manual Creation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="7869418" y="1705770"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="6725166" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}">
+    <dsp:sp modelId="{6DF9FE6C-2AE3-468A-A578-5ED119A81539}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8131295" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="6725166" y="4452792"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7152,24 +7849,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" kern="1200"/>
-            <a:t>4.1 Status reports </a:t>
+            <a:t>3.4.3 System Documentation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8131295" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="6725166" y="4452792"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{66C8E0B7-413A-4657-B605-B1850669335D}">
+    <dsp:sp modelId="{4FEB0F4C-CE8F-4E74-935E-5E1BB523FAD5}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8131295" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="7710567" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7230,24 +7927,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" kern="1200"/>
-            <a:t>4.2 Update plans</a:t>
+            <a:t>3.5 Deployment</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8131295" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="7710567" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{BE8F7AF8-851D-4D86-8F4C-95FD4ECB8CCC}">
+    <dsp:sp modelId="{F695EC9B-139B-412C-BA00-6035C73DD0A1}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9136902" y="1705770"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="7967182" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7308,24 +8005,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" kern="1200"/>
-            <a:t>5 - Closing</a:t>
+            <a:t>3.5.1 Integration and Testing</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9136902" y="1705770"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="7967182" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{06B24196-9BE0-40B7-837E-4CA122299E99}">
+    <dsp:sp modelId="{CA292C00-ECB2-4D45-A374-410673F1F792}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9398779" y="2449500"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="7967182" y="3724006"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7386,24 +8083,24 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" kern="1200"/>
-            <a:t>5.1 Final performance review</a:t>
+            <a:t>3.5.2 Security Implementation</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9398779" y="2449500"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="7967182" y="3724006"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{DB044D53-EFD4-4DED-A266-579012D33CD6}">
+    <dsp:sp modelId="{1AB0C6A8-E043-40F2-A702-CC140619702E}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="9398779" y="3193230"/>
-          <a:ext cx="1047507" cy="523753"/>
+          <a:off x="8952583" y="1537647"/>
+          <a:ext cx="1026459" cy="513229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7464,13 +8161,403 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>4 - Controling</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8952583" y="1537647"/>
+        <a:ext cx="1026459" cy="513229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5AA19F2F-BDBF-450A-BD4F-EC661353230D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9209198" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>4.1 Status reports </a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9209198" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{66C8E0B7-413A-4657-B605-B1850669335D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9209198" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>4.2 Update plans</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9209198" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BE8F7AF8-851D-4D86-8F4C-95FD4ECB8CCC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10194599" y="1537647"/>
+          <a:ext cx="1026459" cy="513229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>5 - Closing</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10194599" y="1537647"/>
+        <a:ext cx="1026459" cy="513229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{06B24196-9BE0-40B7-837E-4CA122299E99}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10451214" y="2266433"/>
+          <a:ext cx="1026459" cy="513229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
+            <a:t>5.1 Final performance review</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="10451214" y="2266433"/>
+        <a:ext cx="1026459" cy="513229"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DB044D53-EFD4-4DED-A266-579012D33CD6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="10451214" y="2995220"/>
+          <a:ext cx="1026459" cy="513229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5715" tIns="5715" rIns="5715" bIns="5715" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-AU" sz="900" kern="1200"/>
             <a:t>5.2 Prepare final report</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="9398779" y="3193230"/>
-        <a:ext cx="1047507" cy="523753"/>
+        <a:off x="10451214" y="2995220"/>
+        <a:ext cx="1026459" cy="513229"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9664,13 +10751,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10015,15 +11102,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C4110F-FEEF-4ACD-949D-2759C679BC16}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>